--- a/Mocotono/ad/download_data/商品推广广告商品报告.xlsx
+++ b/Mocotono/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,14 +84,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
-    <col min="4" max="4" width="12.9921875" customWidth="true"/>
+    <col min="4" max="4" width="15.96484375" customWidth="true"/>
     <col min="5" max="5" width="25.94140625" customWidth="true"/>
     <col min="6" max="6" width="22.62890625" customWidth="true"/>
     <col min="7" max="7" width="13.50390625" customWidth="true"/>
-    <col min="8" max="8" width="7.72265625" customWidth="true"/>
+    <col min="8" max="8" width="6.71484375" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
     <col min="11" max="11" width="13.8046875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="10.6875" customWidth="true"/>
+    <col min="18" max="18" width="10.8125" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -234,68 +234,76 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>SB171</t>
+          <t>002</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>SB171 PINK PHRASE</t>
+          <t>plaid shirt</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-PI908-M</t>
+          <t>CS-SB002-LB-2XL</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>B073PPNMZS</t>
+          <t>B074DV9LG9</t>
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>86.0</v>
+        <v>743.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2"/>
+        <v>0.009421265141318977</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>0.6114285714285714</v>
+      </c>
       <c r="L2" s="7" t="n">
-        <v>0.0</v>
+        <v>4.28</v>
       </c>
       <c r="M2" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>22.98</v>
+      </c>
+      <c r="N2" s="6" t="n">
+        <v>0.18624891209747607</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>5.369158878504673</v>
+      </c>
       <c r="P2" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R2"/>
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="6" t="n">
+        <v>0.14285714285714285</v>
+      </c>
       <c r="S2" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U2" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -304,55 +312,49 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>SOLID SHIRTS</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>plaid shirt</t>
+          <t>007</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>CS-SB002-LB-2XL</t>
+          <t>CS-SB007-LB-S</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>B074DV9LG9</t>
+          <t>B07512JPLR</t>
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>780.0</v>
+        <v>66.0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.007692307692307693</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0.3066666666666667</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K3"/>
       <c r="L3" s="7" t="n">
-        <v>1.84</v>
+        <v>0.0</v>
       </c>
       <c r="M3" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N3"/>
-      <c r="O3" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O3"/>
       <c r="P3" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R3" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R3"/>
       <c r="S3" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -368,10 +370,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -390,39 +392,45 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>CS-SB007-LB-S</t>
+          <t>CS-SB007-LP-XXL</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>B07512JPLR</t>
+          <t>B075189FCS</t>
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>89.0</v>
+        <v>255.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4"/>
+        <v>0.00392156862745098</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>0.24</v>
+      </c>
       <c r="L4" s="7" t="n">
-        <v>0.0</v>
+        <v>0.24</v>
       </c>
       <c r="M4" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N4"/>
-      <c r="O4"/>
+      <c r="O4" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P4" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R4"/>
+      <c r="R4" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S4" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -438,10 +446,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -460,16 +468,16 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>CS-SB007-LP-XXL</t>
+          <t>CS-SB007-PP-XXL</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B075189FCS</t>
+          <t>B07519P3CD</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>277.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0.0</v>
@@ -482,38 +490,36 @@
         <v>0.0</v>
       </c>
       <c r="M5" s="7" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>0.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N5"/>
       <c r="O5"/>
       <c r="P5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R5"/>
       <c r="S5" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U5" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" s="7" t="n">
-        <v>24.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -522,26 +528,26 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>SOLID SHIRTS</t>
+          <t>009</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>plaid shirt</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>CS-SB007-PP-XXL</t>
+          <t>CS-SB009-CF-M</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B07519P3CD</t>
+          <t>B07511Q71N</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="I6" s="4" t="n">
         <v>0.0</v>
@@ -580,10 +586,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -602,66 +608,64 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-CF-M</t>
+          <t>CS-SB009-YL-S</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B07511Q71N</t>
+          <t>B07516DD8B</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.125</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.24</v>
+        <v>0.66</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.24</v>
+        <v>0.66</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>22.98</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>0.010443864229765015</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N7"/>
       <c r="O7" s="5" t="n">
-        <v>95.75</v>
+        <v>0.0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S7" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U7" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V7" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -680,28 +684,28 @@
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-YL-S</t>
+          <t>CS-SB009-LB1-S</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B07516DD8B</t>
+          <t>B075131VPH</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>38.0</v>
+        <v>12.0</v>
       </c>
       <c r="I8" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02631578947368421</v>
+        <v>0.08333333333333331</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="M8" s="7" t="n">
         <v>0.0</v>
@@ -734,10 +738,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43276.0</v>
+        <v>43286.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -756,16 +760,16 @@
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-LB1-S</t>
+          <t>CS-SB009-GN-S</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B075131VPH</t>
+          <t>B07519GSMX</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>32.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" s="4" t="n">
         <v>0.0</v>
@@ -804,10 +808,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -816,49 +820,55 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>MY026-SD</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>plaid shirt</t>
+          <t>026-SD</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-GN-S</t>
+          <t>MY-SB026-RD-L</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B07519GSMX</t>
+          <t>B078SKTQ7J</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>9.0</v>
+        <v>1514.0</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10"/>
+        <v>0.0013210039630118893</v>
+      </c>
+      <c r="K10" s="7" t="n">
+        <v>0.14</v>
+      </c>
       <c r="L10" s="7" t="n">
-        <v>0.0</v>
+        <v>0.28</v>
       </c>
       <c r="M10" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N10"/>
-      <c r="O10"/>
+      <c r="O10" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P10" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R10"/>
+      <c r="R10" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S10" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -874,10 +884,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -886,38 +896,38 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>WY-017-AUTO</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>WY-SB017-AUTO</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>MY-SB026-RD-L</t>
+          <t>WY-SB017-LG-L</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B078SKTQ7J</t>
+          <t>B078NPFZQ8</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>1106.0</v>
+        <v>1272.0</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.003616636528028933</v>
+        <v>7.861635220125788E-4</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.19999999999999998</v>
+        <v>0.28</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.28</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>0.0</v>
@@ -950,10 +960,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -962,49 +972,55 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>WY-017-AUTO</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>WY-SB017-AUTO</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-LG-L</t>
+          <t>WY-SB017-NY-XXL</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B078NPFZQ8</t>
+          <t>B078NC5YWP</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>711.0</v>
+        <v>3543.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12"/>
+        <v>0.0011289867344058708</v>
+      </c>
+      <c r="K12" s="7" t="n">
+        <v>0.38749999999999996</v>
+      </c>
       <c r="L12" s="7" t="n">
-        <v>0.0</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="M12" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
+      <c r="O12" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P12" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R12"/>
+      <c r="R12" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S12" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1020,10 +1036,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1032,38 +1048,38 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>WY-017-AUTO</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>WY-SB017-AUTO</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-NY-XXL</t>
+          <t>WY-SB017-RD-XXL</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B078NC5YWP</t>
+          <t>B078NK51Q6</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>152.0</v>
+        <v>2618.0</v>
       </c>
       <c r="I13" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.006578947368421052</v>
+        <v>3.819709702062643E-4</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>0.28</v>
+        <v>0.71</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>0.28</v>
+        <v>0.71</v>
       </c>
       <c r="M13" s="7" t="n">
         <v>0.0</v>
@@ -1096,10 +1112,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43282.0</v>
+        <v>43284.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1108,26 +1124,26 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>009</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>checked gingham</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>WY-SB017-RD-XXL</t>
+          <t>CS-SB009-GN-XL</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B078NK51Q6</t>
+          <t>B07513ZMT5</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>118.0</v>
+        <v>2.0</v>
       </c>
       <c r="I14" s="4" t="n">
         <v>0.0</v>
@@ -1166,10 +1182,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1188,16 +1204,16 @@
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-GN-XL</t>
+          <t>CS-SB009-YL-XL</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B07513ZMT5</t>
+          <t>B075132NT4</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="I15" s="4" t="n">
         <v>0.0</v>
@@ -1236,10 +1252,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1253,63 +1269,71 @@
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>checked gingham</t>
+          <t>button casual</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-YL-XL</t>
+          <t>CS-SB009-LB1-XXL</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B075132NT4</t>
+          <t>B07512JL48</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
+        <v>7224.0</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0.0048449612403100775</v>
+      </c>
+      <c r="K16" s="7" t="n">
+        <v>0.7308571428571429</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>25.580000000000002</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>45.96</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0.5565709312445605</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>1.7967161845191555</v>
+      </c>
+      <c r="P16" s="4" t="n">
         <v>2.0</v>
       </c>
-      <c r="I16" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M16" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q16" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R16"/>
+        <v>2.0</v>
+      </c>
+      <c r="R16" s="6" t="n">
+        <v>0.05714285714285714</v>
+      </c>
       <c r="S16" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T16" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U16" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" s="7" t="n">
-        <v>0.0</v>
+        <v>45.96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1318,76 +1342,74 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>button casual</t>
+          <t>check gingham</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-LB1-XXL</t>
+          <t>CS-LY084-H12-XXL</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B07512JL48</t>
+          <t>B06XPDYHH7</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>13906.0</v>
+        <v>1317.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>37.0</v>
+        <v>2.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.0026607219905076945</v>
+        <v>0.0015186028853454822</v>
       </c>
       <c r="K17" s="7" t="n">
-        <v>0.7418918918918918</v>
+        <v>0.46499999999999997</v>
       </c>
       <c r="L17" s="7" t="n">
-        <v>27.449999999999996</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="M17" s="7" t="n">
-        <v>22.98</v>
-      </c>
-      <c r="N17" s="6" t="n">
-        <v>1.194516971279373</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N17"/>
       <c r="O17" s="5" t="n">
-        <v>0.8371584699453554</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17" s="6" t="n">
-        <v>0.027027027027027025</v>
+        <v>0.0</v>
       </c>
       <c r="S17" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U17" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1396,74 +1418,76 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>SOLID SHIRTS</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>check gingham</t>
+          <t>181</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H12-XXL</t>
+          <t>CS-LY171-LG907-M</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B06XPDYHH7</t>
+          <t>B073PQ8R7W</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>492.0</v>
+        <v>10027.0</v>
       </c>
       <c r="I18" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.0014959609055550016</v>
+      </c>
+      <c r="K18" s="7" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>7.680000000000001</v>
+      </c>
+      <c r="M18" s="7" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0.3342036553524805</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>2.9921875</v>
+      </c>
+      <c r="P18" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J18" s="6" t="n">
-        <v>0.0020325203252032522</v>
-      </c>
-      <c r="K18" s="7" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="M18" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N18"/>
-      <c r="O18" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q18" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R18" s="6" t="n">
-        <v>0.0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S18" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T18" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V18" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43278.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1472,47 +1496,47 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>SB003</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>SB003 phrase</t>
+          <t>170 button down/up/casual</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>CS-BS003-LB-XL</t>
+          <t>CS-SB170-W902-XL</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B078JBLCB7</t>
+          <t>B0788LH3L3</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>5465.0</v>
+        <v>3841.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>16.0</v>
+        <v>26.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.00292772186642269</v>
+        <v>0.006769070554543089</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>0.43624999999999997</v>
+        <v>0.6380769230769231</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>6.9799999999999995</v>
+        <v>16.59</v>
       </c>
       <c r="M19" s="7" t="n">
-        <v>18.98</v>
+        <v>19.98</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.36775553213909373</v>
+        <v>0.8303303303303303</v>
       </c>
       <c r="O19" s="5" t="n">
-        <v>2.71919770773639</v>
+        <v>1.2043399638336347</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>1.0</v>
@@ -1521,7 +1545,7 @@
         <v>1.0</v>
       </c>
       <c r="R19" s="6" t="n">
-        <v>0.0625</v>
+        <v>0.038461538461538464</v>
       </c>
       <c r="S19" s="4" t="n">
         <v>0.0</v>
@@ -1533,15 +1557,15 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="7" t="n">
-        <v>18.98</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1550,74 +1574,76 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>SOLID SHIRTS</t>
+          <t>MY-031-SD</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>031</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LG907-M</t>
+          <t>CS-BUSB031-GN1-M</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B073PQ8R7W</t>
+          <t>B078W17Y8B</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>9401.0</v>
+        <v>324.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>17.0</v>
+        <v>2.0</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0018083182640144665</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="K20" s="7" t="n">
-        <v>0.5129411764705881</v>
+        <v>0.41</v>
       </c>
       <c r="L20" s="7" t="n">
-        <v>8.719999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N20"/>
+        <v>124.9</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>0.006565252201761409</v>
+      </c>
       <c r="O20" s="5" t="n">
-        <v>0.0</v>
+        <v>152.31707317073173</v>
       </c>
       <c r="P20" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q20" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="R20" s="6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S20" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="U20" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V20" s="7" t="n">
-        <v>0.0</v>
+        <v>124.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1626,76 +1652,68 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>MY-031-SD</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>170 button down/up/casual</t>
+          <t>031</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-W902-XL</t>
+          <t>CS-BUSB031-GN3-S</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B0788LH3L3</t>
+          <t>B078VZN6N3</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>4350.0</v>
+        <v>130.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.005057471264367816</v>
-      </c>
-      <c r="K21" s="7" t="n">
-        <v>0.6581818181818182</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K21"/>
       <c r="L21" s="7" t="n">
-        <v>14.48</v>
+        <v>0.0</v>
       </c>
       <c r="M21" s="7" t="n">
-        <v>47.96</v>
-      </c>
-      <c r="N21" s="6" t="n">
-        <v>0.3019182652210175</v>
-      </c>
-      <c r="O21" s="5" t="n">
-        <v>3.3121546961325965</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21"/>
       <c r="P21" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R21" s="6" t="n">
-        <v>0.09090909090909091</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R21"/>
       <c r="S21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U21" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V21" s="7" t="n">
-        <v>47.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1704,49 +1722,55 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>181</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>button up</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>CS-BUSB031-GN1-M</t>
+          <t>CS-SB171-LG907-L</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B078W17Y8B</t>
+          <t>B0788LX4R2</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>20.0</v>
+        <v>198.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K22"/>
+        <v>0.005050505050505051</v>
+      </c>
+      <c r="K22" s="7" t="n">
+        <v>0.8</v>
+      </c>
       <c r="L22" s="7" t="n">
-        <v>0.0</v>
+        <v>0.8</v>
       </c>
       <c r="M22" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N22"/>
-      <c r="O22"/>
+      <c r="O22" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R22"/>
+      <c r="R22" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S22" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1762,10 +1786,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1774,49 +1798,55 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>181</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>long sleeve</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>CS-BUSB031-GN3-S</t>
+          <t>CS-SB171-WR917-XL</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B078VZN6N3</t>
+          <t>B0788MM9FZ</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>46.0</v>
+        <v>156.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K23"/>
+        <v>0.00641025641025641</v>
+      </c>
+      <c r="K23" s="7" t="n">
+        <v>0.02</v>
+      </c>
       <c r="L23" s="7" t="n">
-        <v>0.0</v>
+        <v>0.02</v>
       </c>
       <c r="M23" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N23"/>
-      <c r="O23"/>
+      <c r="O23" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R23"/>
+      <c r="R23" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S23" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1832,10 +1862,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1849,7 +1879,7 @@
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>button up</t>
+          <t>long sleeve</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
@@ -1863,36 +1893,30 @@
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>348.0</v>
+        <v>14.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.0028735632183908046</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>0.78</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K24"/>
       <c r="L24" s="7" t="n">
-        <v>0.78</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N24"/>
-      <c r="O24" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O24"/>
       <c r="P24" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R24" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R24"/>
       <c r="S24" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1908,10 +1932,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1925,69 +1949,71 @@
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>long sleeve</t>
+          <t>oxford</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>CS-SB171-WR917-XL</t>
+          <t>CS-SB171-W902-XL</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B0788MM9FZ</t>
+          <t>B0788N1TMH</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>155.0</v>
+        <v>2193.0</v>
       </c>
       <c r="I25" s="4" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J25" s="6" t="n">
+        <v>0.005471956224350205</v>
+      </c>
+      <c r="K25" s="7" t="n">
+        <v>0.6258333333333334</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="M25" s="7" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>0.35795996186844614</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>2.793608521970706</v>
+      </c>
+      <c r="P25" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J25" s="6" t="n">
-        <v>0.0064516129032258064</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L25" s="7" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M25" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N25"/>
-      <c r="O25" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P25" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R25" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08333333333333331</v>
       </c>
       <c r="S25" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T25" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U25" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V25" s="7" t="n">
-        <v>0.0</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -1996,55 +2022,49 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>010</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>long sleeve</t>
+          <t>010</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>CS-SB171-LG907-L</t>
+          <t>CS-SB010-WT-1</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B0788LX4R2</t>
+          <t>B07559157L</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>32.0</v>
+        <v>55.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03125</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>0.15</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K26"/>
       <c r="L26" s="7" t="n">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="M26" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N26"/>
-      <c r="O26" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O26"/>
       <c r="P26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R26" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R26"/>
       <c r="S26" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2060,10 +2080,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2072,76 +2092,68 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>010</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>oxford</t>
+          <t>010</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>CS-SB171-W902-XL</t>
+          <t>CS-SB010-WT-4</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B0788N1TMH</t>
+          <t>B075556QB8</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>3329.0</v>
+        <v>37.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.005707419645539201</v>
-      </c>
-      <c r="K27" s="7" t="n">
-        <v>0.6331578947368421</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K27"/>
       <c r="L27" s="7" t="n">
-        <v>12.030000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M27" s="7" t="n">
-        <v>47.96</v>
-      </c>
-      <c r="N27" s="6" t="n">
-        <v>0.25083402835696417</v>
-      </c>
-      <c r="O27" s="5" t="n">
-        <v>3.98669991687448</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N27"/>
+      <c r="O27"/>
       <c r="P27" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R27" s="6" t="n">
-        <v>0.10526315789473684</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R27"/>
       <c r="S27" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T27" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U27" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V27" s="7" t="n">
-        <v>47.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2160,16 +2172,16 @@
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>CS-SB010-WT-1</t>
+          <t>CS-SB010-WT-7</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B07559157L</t>
+          <t>B075584M2W</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>101.0</v>
+        <v>27.0</v>
       </c>
       <c r="I28" s="4" t="n">
         <v>0.0</v>
@@ -2208,10 +2220,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2230,45 +2242,39 @@
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>CS-SB010-WT-4</t>
+          <t>CS-SB010-WT-8</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B075556QB8</t>
+          <t>B07556LCKF</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>123.0</v>
+        <v>23.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.008130081300813009</v>
-      </c>
-      <c r="K29" s="7" t="n">
-        <v>0.16</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" s="7" t="n">
-        <v>0.16</v>
+        <v>0.0</v>
       </c>
       <c r="M29" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N29"/>
-      <c r="O29" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O29"/>
       <c r="P29" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R29"/>
       <c r="S29" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2284,10 +2290,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2296,49 +2302,55 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>MY019-AUTO</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>019</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>CS-SB010-WT-7</t>
+          <t>MY-SB020-DG-M</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B075584M2W</t>
+          <t>B077XBDKM4</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>104.0</v>
+        <v>1154.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30"/>
+        <v>0.0017331022530329288</v>
+      </c>
+      <c r="K30" s="7" t="n">
+        <v>0.33</v>
+      </c>
       <c r="L30" s="7" t="n">
-        <v>0.0</v>
+        <v>0.66</v>
       </c>
       <c r="M30" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N30"/>
-      <c r="O30"/>
+      <c r="O30" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R30"/>
+      <c r="R30" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2354,10 +2366,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2366,38 +2378,38 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>MY019-AUTO</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>010</t>
+          <t>019</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>CS-SB010-WT-8</t>
+          <t>MY-SB020-BK-L</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B07556LCKF</t>
+          <t>B077XFWLF4</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>173.0</v>
+        <v>1757.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.005780346820809248</v>
+        <v>0.0011383039271485487</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>0.34</v>
+        <v>0.425</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>0.34</v>
+        <v>0.85</v>
       </c>
       <c r="M31" s="7" t="n">
         <v>0.0</v>
@@ -2430,10 +2442,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2442,38 +2454,38 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>019</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>019</t>
+          <t>166 phrase</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>MY-SB020-DG-M</t>
+          <t>CS-SB166-B28-4-L</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B077XBDKM4</t>
+          <t>B07916H4PV</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>273.0</v>
+        <v>491.0</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>2.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.007326007326007325</v>
+        <v>0.004073319755600814</v>
       </c>
       <c r="K32" s="7" t="n">
-        <v>0.34</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="L32" s="7" t="n">
-        <v>0.68</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>0.0</v>
@@ -2506,10 +2518,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2518,38 +2530,38 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>019</t>
+          <t>WQS1503-AUTO</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>019</t>
+          <t>WQS1503-AUTO</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>MY-SB020-BK-L</t>
+          <t>POLO-SB014-GN-M</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B077XFWLF4</t>
+          <t>B076D1NFQ1</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>671.0</v>
+        <v>1236.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0014903129657228018</v>
+        <v>0.0016181229773462786</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="M33" s="7" t="n">
         <v>0.0</v>
@@ -2582,10 +2594,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2594,74 +2606,76 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>032</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>166 phrase</t>
+          <t>032-AUTO</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>CS-SB166-B28-4-L</t>
+          <t>CS-BUSB032-BL-S</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B07916H4PV</t>
+          <t>B07CC5Z3YB</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>1747.0</v>
+        <v>26383.0</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>13.0</v>
+        <v>119.0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>0.007441327990841442</v>
+        <v>0.004510480233483683</v>
       </c>
       <c r="K34" s="7" t="n">
-        <v>0.5861538461538462</v>
+        <v>0.6235294117647058</v>
       </c>
       <c r="L34" s="7" t="n">
-        <v>7.620000000000001</v>
+        <v>74.19999999999999</v>
       </c>
       <c r="M34" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N34"/>
+        <v>68.94</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>1.0762982303452275</v>
+      </c>
       <c r="O34" s="5" t="n">
-        <v>0.0</v>
+        <v>0.9291105121293801</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R34" s="6" t="n">
-        <v>0.0</v>
+        <v>0.025210084033613446</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U34" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V34" s="7" t="n">
-        <v>0.0</v>
+        <v>68.94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2670,74 +2684,76 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>032</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>032-AUTO</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>POLO-SB014-GN-M</t>
+          <t>CS-BUSB032-YL-M</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B076D1NFQ1</t>
+          <t>B07C3T8GXY</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>300.0</v>
+        <v>58782.0</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>1.0</v>
+        <v>170.0</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>0.0033333333333333335</v>
+        <v>0.0028920417814977373</v>
       </c>
       <c r="K35" s="7" t="n">
-        <v>0.28</v>
+        <v>0.6538235294117647</v>
       </c>
       <c r="L35" s="7" t="n">
-        <v>0.28</v>
+        <v>111.15</v>
       </c>
       <c r="M35" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N35"/>
+        <v>229.79999999999998</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>0.48368146214099217</v>
+      </c>
       <c r="O35" s="5" t="n">
-        <v>0.0</v>
+        <v>2.0674763832658565</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="R35" s="6" t="n">
-        <v>0.0</v>
+        <v>0.047058823529411764</v>
       </c>
       <c r="S35" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="U35" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V35" s="7" t="n">
-        <v>0.0</v>
+        <v>229.79999999999998</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43277.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2746,74 +2762,76 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>WQS1503-AUTO</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>WQS1503-AUTO</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>POLO-SB014-BK-L</t>
+          <t>POLO-SB014-GR-M</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B076DM4SWY</t>
+          <t>B076CZ1K61</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>522.0</v>
+        <v>62397.0</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>1.0</v>
+        <v>51.0</v>
       </c>
       <c r="J36" s="6" t="n">
-        <v>0.001915708812260536</v>
+        <v>8.173469878359536E-4</v>
       </c>
       <c r="K36" s="7" t="n">
-        <v>0.17</v>
+        <v>0.3635294117647059</v>
       </c>
       <c r="L36" s="7" t="n">
-        <v>0.17</v>
+        <v>18.54</v>
       </c>
       <c r="M36" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N36"/>
+        <v>177.92</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>0.10420413669064749</v>
+      </c>
       <c r="O36" s="5" t="n">
-        <v>0.0</v>
+        <v>9.596548004314995</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="R36" s="6" t="n">
-        <v>0.0</v>
+        <v>0.19607843137254904</v>
       </c>
       <c r="S36" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="T36" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="U36" s="7" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="V36" s="7" t="n">
-        <v>0.0</v>
+        <v>132.92000000000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2822,76 +2840,74 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>166 phrase</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>CS-BUSB032-BL-S</t>
+          <t>CS-SB166-K33-2-L</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B07CC5Z3YB</t>
+          <t>B071VYBSVW</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>90460.0</v>
+        <v>170.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>180.0</v>
+        <v>3.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.001989829759009507</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="K37" s="7" t="n">
-        <v>0.6437777777777778</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L37" s="7" t="n">
-        <v>115.88</v>
+        <v>1.24</v>
       </c>
       <c r="M37" s="7" t="n">
-        <v>230.79999999999998</v>
-      </c>
-      <c r="N37" s="6" t="n">
-        <v>0.5020797227036395</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N37"/>
       <c r="O37" s="5" t="n">
-        <v>1.9917155678287883</v>
+        <v>0.0</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="R37" s="6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T37" s="4" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="U37" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V37" s="7" t="n">
-        <v>230.79999999999998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2900,76 +2916,74 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>MY026-SD</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>026-SD</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>CS-BUSB032-RD-L</t>
+          <t>MY-SB026-BK-M</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B07C3YBYX7</t>
+          <t>B078SLHWWD</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>3816.0</v>
+        <v>1064.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.003930817610062893</v>
+        <v>9.398496240601503E-4</v>
       </c>
       <c r="K38" s="7" t="n">
-        <v>0.604</v>
+        <v>0.45</v>
       </c>
       <c r="L38" s="7" t="n">
-        <v>9.06</v>
+        <v>0.45</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="N38" s="6" t="n">
-        <v>0.1971279373368146</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N38"/>
       <c r="O38" s="5" t="n">
-        <v>5.072847682119205</v>
+        <v>0.0</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R38" s="6" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="S38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U38" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V38" s="7" t="n">
-        <v>45.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -2978,76 +2992,76 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>021</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>021</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>CS-BUSB032-YL-M</t>
+          <t>MY-LYPoint021-W0-M</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B07C3T8GXY</t>
+          <t>B073XJLB1W</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>62586.0</v>
+        <v>29715.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>160.0</v>
+        <v>38.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.002556482280382194</v>
+        <v>0.0012788154130910314</v>
       </c>
       <c r="K39" s="7" t="n">
-        <v>0.6578125</v>
+        <v>0.7057894736842104</v>
       </c>
       <c r="L39" s="7" t="n">
-        <v>105.25</v>
+        <v>26.819999999999997</v>
       </c>
       <c r="M39" s="7" t="n">
-        <v>208.82</v>
+        <v>45.96</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.5040226031989273</v>
+        <v>0.5835509138381201</v>
       </c>
       <c r="O39" s="5" t="n">
-        <v>1.9840380047505937</v>
+        <v>1.713646532438479</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="R39" s="6" t="n">
-        <v>0.05625</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="U39" s="7" t="n">
         <v>22.98</v>
       </c>
       <c r="V39" s="7" t="n">
-        <v>185.84</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3056,74 +3070,76 @@
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>032-SD</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>032</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>POLO-SB014-GR-M</t>
+          <t>CS-BUSB032-BL-S</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B076CZ1K61</t>
+          <t>B07CC5Z3YB</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>634.0</v>
+        <v>2631.0</v>
       </c>
       <c r="I40" s="4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>0.008361839604713038</v>
+      </c>
+      <c r="K40" s="7" t="n">
+        <v>0.504090909090909</v>
+      </c>
+      <c r="L40" s="7" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="M40" s="7" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>0.4825935596170583</v>
+      </c>
+      <c r="O40" s="5" t="n">
+        <v>2.072137060414788</v>
+      </c>
+      <c r="P40" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J40" s="6" t="n">
-        <v>0.0015772870662460567</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M40" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N40"/>
-      <c r="O40" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P40" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="Q40" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R40" s="6" t="n">
-        <v>0.0</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U40" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V40" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3132,38 +3148,38 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>0866</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>166 phrase</t>
+          <t>086</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>CS-SB166-K33-2-L</t>
+          <t>CS-SB086-LB-XL</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B071VYBSVW</t>
+          <t>B0787VBR2P</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>721.0</v>
+        <v>7782.0</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>0.005547850208044383</v>
+        <v>0.0014135183757388843</v>
       </c>
       <c r="K41" s="7" t="n">
-        <v>0.565</v>
+        <v>0.22454545454545452</v>
       </c>
       <c r="L41" s="7" t="n">
-        <v>2.26</v>
+        <v>2.4699999999999998</v>
       </c>
       <c r="M41" s="7" t="n">
         <v>0.0</v>
@@ -3196,10 +3212,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3208,76 +3224,74 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>YL</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>013</t>
+          <t>YL</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>MY-SB026-BK-M</t>
+          <t>SB-YL002-KCN80BNR</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B078SLHWWD</t>
+          <t>B0776WJDHZ</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>2130.0</v>
+        <v>814.0</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>0.0018779342723004694</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>0.1925</v>
+        <v>0.475</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="M42" s="7" t="n">
-        <v>53.96</v>
-      </c>
-      <c r="N42" s="6" t="n">
-        <v>0.014269829503335805</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N42"/>
       <c r="O42" s="5" t="n">
-        <v>70.07792207792208</v>
+        <v>0.0</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R42" s="6" t="n">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="S42" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U42" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V42" s="7" t="n">
-        <v>53.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3286,76 +3300,74 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>021</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>021</t>
+          <t>plaid shirt</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>MY-LYPoint021-W0-M</t>
+          <t>CS-SB084-H15-XXL</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B073XJLB1W</t>
+          <t>B079DK99DZ</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>38535.0</v>
+        <v>389.0</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>54.0</v>
+        <v>2.0</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>0.0014013234721681588</v>
+        <v>0.005141388174807198</v>
       </c>
       <c r="K43" s="7" t="n">
-        <v>0.677962962962963</v>
+        <v>0.545</v>
       </c>
       <c r="L43" s="7" t="n">
-        <v>36.61</v>
+        <v>1.09</v>
       </c>
       <c r="M43" s="7" t="n">
-        <v>91.92</v>
-      </c>
-      <c r="N43" s="6" t="n">
-        <v>0.3982811140121845</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N43"/>
       <c r="O43" s="5" t="n">
-        <v>2.510789401802786</v>
+        <v>0.0</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q43" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R43" s="6" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.0</v>
       </c>
       <c r="S43" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T43" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U43" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
       <c r="V43" s="7" t="n">
-        <v>68.94</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3364,76 +3376,68 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>032+</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>long sleeve</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>CS-BUSB032-BL-S</t>
+          <t>CS-SB084-H15-XXL</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B07CC5Z3YB</t>
+          <t>B079DK99DZ</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>120906.0</v>
+        <v>44.0</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>249.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.0020594511438638283</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0.5126104417670682</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K44"/>
       <c r="L44" s="7" t="n">
-        <v>127.63999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="M44" s="7" t="n">
-        <v>207.82</v>
-      </c>
-      <c r="N44" s="6" t="n">
-        <v>0.614185352709075</v>
-      </c>
-      <c r="O44" s="5" t="n">
-        <v>1.6281729865246009</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N44"/>
+      <c r="O44"/>
       <c r="P44" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q44" s="4" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="R44" s="6" t="n">
-        <v>0.03614457831325301</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R44"/>
       <c r="S44" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T44" s="4" t="n">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="U44" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V44" s="7" t="n">
-        <v>207.82</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3442,47 +3446,47 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>0866</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>086</t>
+          <t>long sleeve</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>CS-SB086-LB-XL</t>
+          <t>CS-LY084-H12-XXL</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B0787VBR2P</t>
+          <t>B06XPDYHH7</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>8925.0</v>
+        <v>687.0</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0020168067226890756</v>
+        <v>0.010189228529839884</v>
       </c>
       <c r="K45" s="7" t="n">
-        <v>0.21833333333333332</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="L45" s="7" t="n">
-        <v>3.9299999999999997</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="M45" s="7" t="n">
-        <v>18.98</v>
+        <v>22.98</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.20706006322444676</v>
+        <v>0.1392515230635335</v>
       </c>
       <c r="O45" s="5" t="n">
-        <v>4.829516539440204</v>
+        <v>7.18125</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>1.0</v>
@@ -3491,27 +3495,27 @@
         <v>1.0</v>
       </c>
       <c r="R45" s="6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="S45" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T45" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="T45" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="U45" s="7" t="n">
-        <v>18.98</v>
+        <v>0.0</v>
       </c>
       <c r="V45" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3520,38 +3524,38 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>YL</t>
+          <t>W1798</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>YL</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>SB-YL002-KCN80BNR</t>
+          <t>CFY-W1798-BL-XL</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B0776WJDHZ</t>
+          <t>B076HQV34J</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>1883.0</v>
+        <v>1512.0</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>0.0010621348911311736</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="K46" s="7" t="n">
-        <v>0.17</v>
+        <v>0.49</v>
       </c>
       <c r="L46" s="7" t="n">
-        <v>0.34</v>
+        <v>1.47</v>
       </c>
       <c r="M46" s="7" t="n">
         <v>0.0</v>
@@ -3584,10 +3588,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3601,50 +3605,44 @@
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>plaid shirt</t>
+          <t>check gingham</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>CS-SB084-H15-XXL</t>
+          <t>CS-LY084-H15-XL</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B079DK99DZ</t>
+          <t>B06XPVWPJV</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>393.0</v>
+        <v>545.0</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>0.007633587786259542</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <v>0.6966666666666667</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K47"/>
       <c r="L47" s="7" t="n">
-        <v>2.09</v>
+        <v>0.0</v>
       </c>
       <c r="M47" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N47"/>
-      <c r="O47" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O47"/>
       <c r="P47" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R47" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R47"/>
       <c r="S47" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3660,10 +3658,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3672,26 +3670,26 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>002</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>long sleeve</t>
+          <t>button up down</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>CS-SB084-H15-XXL</t>
+          <t>CS-SB002-LB-2XL</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B079DK99DZ</t>
+          <t>B074DV9LG9</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>104.0</v>
+        <v>65.0</v>
       </c>
       <c r="I48" s="4" t="n">
         <v>0.0</v>
@@ -3730,10 +3728,10 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3742,55 +3740,49 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>W1798</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>long sleeve</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H12-XXL</t>
+          <t>CFY-W1830-RD-XL</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B06XPDYHH7</t>
+          <t>B076HR9JQB</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>180.0</v>
+        <v>637.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.011111111111111112</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0.505</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K49"/>
       <c r="L49" s="7" t="n">
-        <v>1.01</v>
+        <v>0.0</v>
       </c>
       <c r="M49" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N49"/>
-      <c r="O49" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O49"/>
       <c r="P49" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R49" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R49"/>
       <c r="S49" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3806,10 +3798,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3818,74 +3810,76 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>W1798</t>
+          <t>PLAID SHIRT</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>009</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>CFY-W1798-BL-XL</t>
+          <t>CS-SB009-BK-XXL</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B076HQV34J</t>
+          <t>B07518CGWW</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>1194.0</v>
+        <v>10809.0</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>2.0</v>
+        <v>38.0</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0016750418760469012</v>
+        <v>0.00351558886113424</v>
       </c>
       <c r="K50" s="7" t="n">
-        <v>0.11</v>
+        <v>0.5857894736842105</v>
       </c>
       <c r="L50" s="7" t="n">
-        <v>0.22</v>
+        <v>22.259999999999998</v>
       </c>
       <c r="M50" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N50"/>
+        <v>89.92</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>0.2475533807829181</v>
+      </c>
       <c r="O50" s="5" t="n">
-        <v>0.0</v>
+        <v>4.039532794249776</v>
       </c>
       <c r="P50" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="R50" s="6" t="n">
-        <v>0.0</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T50" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U50" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
       <c r="V50" s="7" t="n">
-        <v>0.0</v>
+        <v>66.94</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3894,70 +3888,76 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>PLAID SHIRT</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>check gingham</t>
+          <t>009</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H15-XL</t>
+          <t>CS-SB009-LB1-XL</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B06XPVWPJV</t>
+          <t>B074ZY4X2Q</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>755.0</v>
+        <v>17372.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K51"/>
+        <v>0.0025903753166014276</v>
+      </c>
+      <c r="K51" s="7" t="n">
+        <v>0.6035555555555557</v>
+      </c>
       <c r="L51" s="7" t="n">
-        <v>0.0</v>
+        <v>27.160000000000007</v>
       </c>
       <c r="M51" s="7" t="n">
-        <v>19.53</v>
+        <v>68.94</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O51"/>
+        <v>0.39396576733391364</v>
+      </c>
+      <c r="O51" s="5" t="n">
+        <v>2.538291605301914</v>
+      </c>
       <c r="P51" s="4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R51"/>
+        <v>3.0</v>
+      </c>
+      <c r="R51" s="6" t="n">
+        <v>0.06666666666666667</v>
+      </c>
       <c r="S51" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T51" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U51" s="7" t="n">
-        <v>19.53</v>
+        <v>0.0</v>
       </c>
       <c r="V51" s="7" t="n">
-        <v>0.0</v>
+        <v>68.94</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43277.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43277.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -3966,31 +3966,33 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>SB003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>SB003 phrase</t>
+          <t>001</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>CS-BS003-NB-XL</t>
+          <t>CS-SB005-BK-XL</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B078JNL9TC</t>
+          <t>B074NZKQBC</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="I52" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J52"/>
+      <c r="J52" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="K52"/>
       <c r="L52" s="7" t="n">
         <v>0.0</v>
@@ -4022,10 +4024,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -4034,26 +4036,26 @@
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>button up down</t>
+          <t>001</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>CS-SB002-LB-2XL</t>
+          <t>CS-SB005-BL2-2XL</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B074DV9LG9</t>
+          <t>B074P61RHZ</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>35.0</v>
+        <v>115.0</v>
       </c>
       <c r="I53" s="4" t="n">
         <v>0.0</v>
@@ -4092,10 +4094,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4104,55 +4106,49 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>W1798</t>
+          <t>006</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>006</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>CFY-W1830-RD-XL</t>
+          <t>CS-BBS006-GN-L</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B076HR9JQB</t>
+          <t>B07CGLZ9CD</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>646.0</v>
+        <v>96.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.0030959752321981426</v>
-      </c>
-      <c r="K54" s="7" t="n">
-        <v>0.28</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K54"/>
       <c r="L54" s="7" t="n">
-        <v>0.56</v>
+        <v>0.0</v>
       </c>
       <c r="M54" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N54"/>
-      <c r="O54" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O54"/>
       <c r="P54" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R54" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R54"/>
       <c r="S54" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4168,10 +4164,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4180,38 +4176,38 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>PLAID SHIRT</t>
+          <t>006</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>006</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-BK-XXL</t>
+          <t>CS-SB006-BK-2XL</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B07518CGWW</t>
+          <t>B074P2L5MQ</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>4406.0</v>
+        <v>229.0</v>
       </c>
       <c r="I55" s="4" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="J55" s="6" t="n">
-        <v>0.0029505220154335</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="K55" s="7" t="n">
-        <v>0.40846153846153843</v>
+        <v>0.49</v>
       </c>
       <c r="L55" s="7" t="n">
-        <v>5.31</v>
+        <v>0.98</v>
       </c>
       <c r="M55" s="7" t="n">
         <v>0.0</v>
@@ -4244,10 +4240,10 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
@@ -4256,76 +4252,76 @@
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>PLAID SHIRT</t>
+          <t>006</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>006</t>
         </is>
       </c>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-LB1-XL</t>
+          <t>CS-SB006-BL2-XL</t>
         </is>
       </c>
       <c r="G56" s="1" t="inlineStr">
         <is>
-          <t>B074ZY4X2Q</t>
+          <t>B074P1TN5R</t>
         </is>
       </c>
       <c r="H56" s="4" t="n">
-        <v>27306.0</v>
+        <v>1310.0</v>
       </c>
       <c r="I56" s="4" t="n">
-        <v>43.0</v>
+        <v>3.0</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.0015747454771845016</v>
+        <v>0.0022900763358778627</v>
       </c>
       <c r="K56" s="7" t="n">
-        <v>0.6167441860465117</v>
+        <v>0.3133333333333333</v>
       </c>
       <c r="L56" s="7" t="n">
-        <v>26.520000000000003</v>
+        <v>0.94</v>
       </c>
       <c r="M56" s="7" t="n">
-        <v>275.76</v>
+        <v>22.98</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.09617058311575284</v>
+        <v>0.040905134899912966</v>
       </c>
       <c r="O56" s="5" t="n">
-        <v>10.398190045248867</v>
+        <v>24.4468085106383</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q56" s="4" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="R56" s="6" t="n">
-        <v>0.27906976744186046</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="S56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="T56" s="4" t="n">
-        <v>11.0</v>
-      </c>
       <c r="U56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" s="7" t="n">
         <v>22.98</v>
-      </c>
-      <c r="V56" s="7" t="n">
-        <v>252.78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
@@ -4334,26 +4330,26 @@
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>plaid shirt</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>CS-SB005-BK-XL</t>
+          <t>CS-LY084-H6-XXL</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>B074NZKQBC</t>
+          <t>B06XQG8ZCL</t>
         </is>
       </c>
       <c r="H57" s="4" t="n">
-        <v>227.0</v>
+        <v>162.0</v>
       </c>
       <c r="I57" s="4" t="n">
         <v>0.0</v>
@@ -4392,10 +4388,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
@@ -4404,74 +4400,76 @@
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>MY011-SD</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>CS-SB005-BL2-2XL</t>
+          <t>MY-SB011-DG-XL</t>
         </is>
       </c>
       <c r="G58" s="1" t="inlineStr">
         <is>
-          <t>B074P61RHZ</t>
+          <t>B0758WGQVQ</t>
         </is>
       </c>
       <c r="H58" s="4" t="n">
-        <v>226.0</v>
+        <v>9285.0</v>
       </c>
       <c r="I58" s="4" t="n">
-        <v>1.0</v>
+        <v>30.0</v>
       </c>
       <c r="J58" s="6" t="n">
-        <v>0.004424778761061947</v>
+        <v>0.0032310177705977385</v>
       </c>
       <c r="K58" s="7" t="n">
-        <v>0.37</v>
+        <v>0.7116666666666667</v>
       </c>
       <c r="L58" s="7" t="n">
-        <v>0.37</v>
+        <v>21.35</v>
       </c>
       <c r="M58" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N58"/>
+        <v>118.9</v>
+      </c>
+      <c r="N58" s="6" t="n">
+        <v>0.17956265769554247</v>
+      </c>
       <c r="O58" s="5" t="n">
-        <v>0.0</v>
+        <v>5.569086651053864</v>
       </c>
       <c r="P58" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="R58" s="6" t="n">
-        <v>0.0</v>
+        <v>0.16666666666666663</v>
       </c>
       <c r="S58" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T58" s="4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="U58" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V58" s="7" t="n">
-        <v>0.0</v>
+        <v>118.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
@@ -4480,26 +4478,26 @@
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>002</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>button up down</t>
         </is>
       </c>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>CS-BBS006-GN-L</t>
+          <t>CS-SB002-RNBL-2XL</t>
         </is>
       </c>
       <c r="G59" s="1" t="inlineStr">
         <is>
-          <t>B07CGLZ9CD</t>
+          <t>B074DV3V6N</t>
         </is>
       </c>
       <c r="H59" s="4" t="n">
-        <v>326.0</v>
+        <v>7.0</v>
       </c>
       <c r="I59" s="4" t="n">
         <v>0.0</v>
@@ -4538,10 +4536,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
@@ -4550,49 +4548,55 @@
       </c>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>CS-SB006-BK-2XL</t>
+          <t>CS-SB007-GR-L</t>
         </is>
       </c>
       <c r="G60" s="1" t="inlineStr">
         <is>
-          <t>B074P2L5MQ</t>
+          <t>B07514NWBK</t>
         </is>
       </c>
       <c r="H60" s="4" t="n">
-        <v>370.0</v>
+        <v>4485.0</v>
       </c>
       <c r="I60" s="4" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="J60" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K60"/>
+        <v>0.001560758082497213</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0.5828571428571429</v>
+      </c>
       <c r="L60" s="7" t="n">
-        <v>0.0</v>
+        <v>4.08</v>
       </c>
       <c r="M60" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N60"/>
-      <c r="O60"/>
+      <c r="O60" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P60" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q60" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R60"/>
+      <c r="R60" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S60" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4608,10 +4612,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
@@ -4620,74 +4624,76 @@
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>007</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>CS-SB006-BL2-XL</t>
+          <t>CS-SB007-PP-XXL</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>B074P1TN5R</t>
+          <t>B07519P3CD</t>
         </is>
       </c>
       <c r="H61" s="4" t="n">
-        <v>979.0</v>
+        <v>16962.0</v>
       </c>
       <c r="I61" s="4" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="J61" s="6" t="n">
-        <v>0.0040858018386108275</v>
+        <v>4.7164249498879847E-4</v>
       </c>
       <c r="K61" s="7" t="n">
-        <v>0.3475</v>
+        <v>0.51875</v>
       </c>
       <c r="L61" s="7" t="n">
-        <v>1.39</v>
+        <v>4.15</v>
       </c>
       <c r="M61" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N61"/>
+        <v>16.63</v>
+      </c>
+      <c r="N61" s="6" t="n">
+        <v>0.2495490078171979</v>
+      </c>
       <c r="O61" s="5" t="n">
-        <v>0.0</v>
+        <v>4.00722891566265</v>
       </c>
       <c r="P61" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R61" s="6" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="S61" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T61" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U61" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V61" s="7" t="n">
-        <v>0.0</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
@@ -4706,64 +4712,66 @@
       </c>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H6-XXL</t>
+          <t>CS-LY084-H12-XXL</t>
         </is>
       </c>
       <c r="G62" s="1" t="inlineStr">
         <is>
-          <t>B06XQG8ZCL</t>
+          <t>B06XPDYHH7</t>
         </is>
       </c>
       <c r="H62" s="4" t="n">
-        <v>122.0</v>
+        <v>1928.0</v>
       </c>
       <c r="I62" s="4" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="J62" s="6" t="n">
-        <v>0.02459016393442623</v>
+        <v>0.011410788381742738</v>
       </c>
       <c r="K62" s="7" t="n">
-        <v>0.53</v>
+        <v>0.6454545454545455</v>
       </c>
       <c r="L62" s="7" t="n">
-        <v>1.59</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="M62" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N62"/>
+        <v>45.96</v>
+      </c>
+      <c r="N62" s="6" t="n">
+        <v>0.308964316797215</v>
+      </c>
       <c r="O62" s="5" t="n">
-        <v>0.0</v>
+        <v>3.236619718309859</v>
       </c>
       <c r="P62" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q62" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R62" s="6" t="n">
-        <v>0.0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T62" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U62" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
       <c r="V62" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
@@ -4772,76 +4780,68 @@
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>mens flannel</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>MY-SB011-DG-XL</t>
+          <t>CS-SB166-B28-1-L</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>B0758WGQVQ</t>
+          <t>B07916B4RM</t>
         </is>
       </c>
       <c r="H63" s="4" t="n">
-        <v>18973.0</v>
+        <v>347.0</v>
       </c>
       <c r="I63" s="4" t="n">
-        <v>70.0</v>
+        <v>0.0</v>
       </c>
       <c r="J63" s="6" t="n">
-        <v>0.0036894534338270174</v>
-      </c>
-      <c r="K63" s="7" t="n">
-        <v>0.7412857142857144</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K63"/>
       <c r="L63" s="7" t="n">
-        <v>51.89000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M63" s="7" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="N63" s="6" t="n">
-        <v>1.1290252393385554</v>
-      </c>
-      <c r="O63" s="5" t="n">
-        <v>0.8857197918674117</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N63"/>
+      <c r="O63"/>
       <c r="P63" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q63" s="4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R63" s="6" t="n">
-        <v>0.02857142857142857</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R63"/>
       <c r="S63" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T63" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U63" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
       <c r="V63" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
@@ -4850,49 +4850,55 @@
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>166</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>button up down</t>
+          <t>mens flannel</t>
         </is>
       </c>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>CS-SB002-RNBL-2XL</t>
+          <t>CS-SB166-B28-5-XL</t>
         </is>
       </c>
       <c r="G64" s="1" t="inlineStr">
         <is>
-          <t>B074DV3V6N</t>
+          <t>B079172CJ6</t>
         </is>
       </c>
       <c r="H64" s="4" t="n">
-        <v>20.0</v>
+        <v>1038.0</v>
       </c>
       <c r="I64" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J64" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K64"/>
+        <v>9.633911368015414E-4</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <v>0.41</v>
+      </c>
       <c r="L64" s="7" t="n">
-        <v>0.0</v>
+        <v>0.41</v>
       </c>
       <c r="M64" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N64"/>
-      <c r="O64"/>
+      <c r="O64" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P64" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R64"/>
+      <c r="R64" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S64" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -4908,10 +4914,10 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
@@ -4920,74 +4926,76 @@
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>PLAID SHIRT</t>
         </is>
       </c>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>009</t>
         </is>
       </c>
       <c r="F65" s="1" t="inlineStr">
         <is>
-          <t>CS-SB007-GR-L</t>
+          <t>CS-SB009-BL-XL</t>
         </is>
       </c>
       <c r="G65" s="1" t="inlineStr">
         <is>
-          <t>B07514NWBK</t>
+          <t>B07512J697</t>
         </is>
       </c>
       <c r="H65" s="4" t="n">
-        <v>3435.0</v>
+        <v>37726.0</v>
       </c>
       <c r="I65" s="4" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>0.0015374012617293113</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>0.6105172413793104</v>
+      </c>
+      <c r="L65" s="7" t="n">
+        <v>35.410000000000004</v>
+      </c>
+      <c r="M65" s="7" t="n">
+        <v>42.96</v>
+      </c>
+      <c r="N65" s="6" t="n">
+        <v>0.8242551210428306</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>1.2132166054786782</v>
+      </c>
+      <c r="P65" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q65" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R65" s="6" t="n">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="S65" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="J65" s="6" t="n">
-        <v>2.911208151382824E-4</v>
-      </c>
-      <c r="K65" s="7" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L65" s="7" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="M65" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N65"/>
-      <c r="O65" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P65" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q65" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R65" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S65" s="4" t="n">
-        <v>0.0</v>
-      </c>
       <c r="T65" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U65" s="7" t="n">
-        <v>0.0</v>
+        <v>22.98</v>
       </c>
       <c r="V65" s="7" t="n">
-        <v>0.0</v>
+        <v>19.98</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
@@ -4996,38 +5004,38 @@
       </c>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>020</t>
         </is>
       </c>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>020</t>
         </is>
       </c>
       <c r="F66" s="1" t="inlineStr">
         <is>
-          <t>CS-SB007-PP-XXL</t>
+          <t>MY-LYRound020-K0-L</t>
         </is>
       </c>
       <c r="G66" s="1" t="inlineStr">
         <is>
-          <t>B07519P3CD</t>
+          <t>B073XJW2V6</t>
         </is>
       </c>
       <c r="H66" s="4" t="n">
-        <v>3687.0</v>
+        <v>1088.0</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="J66" s="6" t="n">
-        <v>8.136696501220504E-4</v>
+        <v>0.009191176470588236</v>
       </c>
       <c r="K66" s="7" t="n">
-        <v>0.48000000000000004</v>
+        <v>0.619</v>
       </c>
       <c r="L66" s="7" t="n">
-        <v>1.4400000000000002</v>
+        <v>6.1899999999999995</v>
       </c>
       <c r="M66" s="7" t="n">
         <v>0.0</v>
@@ -5060,10 +5068,10 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
@@ -5072,38 +5080,38 @@
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>007</t>
         </is>
       </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>plaid shirt</t>
+          <t>007</t>
         </is>
       </c>
       <c r="F67" s="1" t="inlineStr">
         <is>
-          <t>CS-LY084-H12-XXL</t>
+          <t>CS-SB007-BL-L</t>
         </is>
       </c>
       <c r="G67" s="1" t="inlineStr">
         <is>
-          <t>B06XPDYHH7</t>
+          <t>B0751B9WCV</t>
         </is>
       </c>
       <c r="H67" s="4" t="n">
-        <v>733.0</v>
+        <v>2361.0</v>
       </c>
       <c r="I67" s="4" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="J67" s="6" t="n">
-        <v>0.01637107776261937</v>
+        <v>8.470986869970351E-4</v>
       </c>
       <c r="K67" s="7" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="L67" s="7" t="n">
-        <v>7.44</v>
+        <v>1.23</v>
       </c>
       <c r="M67" s="7" t="n">
         <v>0.0</v>
@@ -5136,10 +5144,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
@@ -5148,38 +5156,38 @@
       </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>1503+</t>
         </is>
       </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>mens flannel</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F68" s="1" t="inlineStr">
         <is>
-          <t>CS-SB166-B28-1-L</t>
+          <t>POLO-1503-NY-L</t>
         </is>
       </c>
       <c r="G68" s="1" t="inlineStr">
         <is>
-          <t>B07916B4RM</t>
+          <t>B078HS362X</t>
         </is>
       </c>
       <c r="H68" s="4" t="n">
-        <v>194.0</v>
+        <v>542.0</v>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J68" s="6" t="n">
-        <v>0.005154639175257731</v>
+        <v>0.0036900369003690036</v>
       </c>
       <c r="K68" s="7" t="n">
-        <v>0.3</v>
+        <v>0.365</v>
       </c>
       <c r="L68" s="7" t="n">
-        <v>0.3</v>
+        <v>0.73</v>
       </c>
       <c r="M68" s="7" t="n">
         <v>0.0</v>
@@ -5212,10 +5220,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
@@ -5224,38 +5232,38 @@
       </c>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>020</t>
         </is>
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>mens flannel</t>
+          <t>020</t>
         </is>
       </c>
       <c r="F69" s="1" t="inlineStr">
         <is>
-          <t>CS-SB166-B28-5-XL</t>
+          <t>MY-LYRound020-BL-M</t>
         </is>
       </c>
       <c r="G69" s="1" t="inlineStr">
         <is>
-          <t>B079172CJ6</t>
+          <t>B0788FV16R</t>
         </is>
       </c>
       <c r="H69" s="4" t="n">
-        <v>979.0</v>
+        <v>3494.0</v>
       </c>
       <c r="I69" s="4" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J69" s="6" t="n">
-        <v>0.0030643513789581204</v>
+        <v>0.002003434459072696</v>
       </c>
       <c r="K69" s="7" t="n">
-        <v>0.4466666666666667</v>
+        <v>0.29714285714285715</v>
       </c>
       <c r="L69" s="7" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="M69" s="7" t="n">
         <v>0.0</v>
@@ -5288,10 +5296,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43278.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
@@ -5300,55 +5308,47 @@
       </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171AUTO</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>170 oxford</t>
+          <t>NAVY</t>
         </is>
       </c>
       <c r="F70" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-W902-XXL</t>
+          <t>CS-SB181-ZL918-XL</t>
         </is>
       </c>
       <c r="G70" s="1" t="inlineStr">
         <is>
-          <t>B0788NVVCB</t>
+          <t>B0789KX4J2</t>
         </is>
       </c>
       <c r="H70" s="4" t="n">
-        <v>387.0</v>
+        <v>0.0</v>
       </c>
       <c r="I70" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J70" s="6" t="n">
-        <v>0.0025839793281653752</v>
-      </c>
-      <c r="K70" s="7" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70"/>
       <c r="L70" s="7" t="n">
-        <v>1.01</v>
+        <v>0.0</v>
       </c>
       <c r="M70" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N70"/>
-      <c r="O70" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O70"/>
       <c r="P70" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q70" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R70" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R70"/>
       <c r="S70" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
@@ -5376,76 +5376,76 @@
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>PLAID SHIRT</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>009</t>
+          <t>170 short sleeve</t>
         </is>
       </c>
       <c r="F71" s="1" t="inlineStr">
         <is>
-          <t>CS-SB009-BL-XL</t>
+          <t>CS-SB170-LB916-L</t>
         </is>
       </c>
       <c r="G71" s="1" t="inlineStr">
         <is>
-          <t>B07512J697</t>
+          <t>B0788K28NT</t>
         </is>
       </c>
       <c r="H71" s="4" t="n">
-        <v>126667.0</v>
+        <v>6647.0</v>
       </c>
       <c r="I71" s="4" t="n">
-        <v>189.0</v>
+        <v>47.0</v>
       </c>
       <c r="J71" s="6" t="n">
-        <v>0.00149210133657543</v>
+        <v>0.007070859034150745</v>
       </c>
       <c r="K71" s="7" t="n">
-        <v>0.6124867724867724</v>
+        <v>0.7282978723404254</v>
       </c>
       <c r="L71" s="7" t="n">
-        <v>115.75999999999999</v>
+        <v>34.23</v>
       </c>
       <c r="M71" s="7" t="n">
-        <v>748.3399999999999</v>
+        <v>257.78000000000003</v>
       </c>
       <c r="N71" s="6" t="n">
-        <v>0.15468904508645803</v>
+        <v>0.1327876483823415</v>
       </c>
       <c r="O71" s="5" t="n">
-        <v>6.464581893572909</v>
+        <v>7.530820917323986</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>33.0</v>
+        <v>8.0</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="R71" s="6" t="n">
-        <v>0.1746031746031746</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="S71" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T71" s="4" t="n">
-        <v>31.0</v>
+        <v>11.0</v>
       </c>
       <c r="U71" s="7" t="n">
-        <v>45.96</v>
+        <v>0.0</v>
       </c>
       <c r="V71" s="7" t="n">
-        <v>702.3800000000001</v>
+        <v>257.78000000000003</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
@@ -5464,28 +5464,28 @@
       </c>
       <c r="F72" s="1" t="inlineStr">
         <is>
-          <t>MY-LYRound020-K0-L</t>
+          <t>MY-LYRound020-GR-L</t>
         </is>
       </c>
       <c r="G72" s="1" t="inlineStr">
         <is>
-          <t>B073XJW2V6</t>
+          <t>B073XK4LR3</t>
         </is>
       </c>
       <c r="H72" s="4" t="n">
-        <v>1413.0</v>
+        <v>7746.0</v>
       </c>
       <c r="I72" s="4" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>0.0028308563340410475</v>
+        <v>0.0023237800154918666</v>
       </c>
       <c r="K72" s="7" t="n">
-        <v>0.73</v>
+        <v>0.6088888888888889</v>
       </c>
       <c r="L72" s="7" t="n">
-        <v>2.92</v>
+        <v>10.96</v>
       </c>
       <c r="M72" s="7" t="n">
         <v>0.0</v>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
@@ -5530,49 +5530,55 @@
       </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>007</t>
+          <t>170 oxford</t>
         </is>
       </c>
       <c r="F73" s="1" t="inlineStr">
         <is>
-          <t>CS-SB007-BL-L</t>
+          <t>CS-SB170-Sa911-XXL</t>
         </is>
       </c>
       <c r="G73" s="1" t="inlineStr">
         <is>
-          <t>B0751B9WCV</t>
+          <t>B0788K95NG</t>
         </is>
       </c>
       <c r="H73" s="4" t="n">
-        <v>1482.0</v>
+        <v>695.0</v>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="J73" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K73"/>
+        <v>0.008633093525179856</v>
+      </c>
+      <c r="K73" s="7" t="n">
+        <v>0.6066666666666667</v>
+      </c>
       <c r="L73" s="7" t="n">
-        <v>0.0</v>
+        <v>3.64</v>
       </c>
       <c r="M73" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N73"/>
-      <c r="O73"/>
+      <c r="O73" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P73" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q73" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R73"/>
+      <c r="R73" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S73" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5588,10 +5594,10 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C74" s="1" t="inlineStr">
         <is>
@@ -5600,38 +5606,38 @@
       </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>1503+</t>
+          <t>002</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>plaid shirt</t>
         </is>
       </c>
       <c r="F74" s="1" t="inlineStr">
         <is>
-          <t>POLO-1503-NY-L</t>
+          <t>CS-SB002-CF-L</t>
         </is>
       </c>
       <c r="G74" s="1" t="inlineStr">
         <is>
-          <t>B078HS362X</t>
+          <t>B074DT4Z95</t>
         </is>
       </c>
       <c r="H74" s="4" t="n">
-        <v>1206.0</v>
+        <v>178.0</v>
       </c>
       <c r="I74" s="4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J74" s="6" t="n">
-        <v>0.0024875621890547263</v>
+        <v>0.005617977528089888</v>
       </c>
       <c r="K74" s="7" t="n">
-        <v>0.3866666666666667</v>
+        <v>0.68</v>
       </c>
       <c r="L74" s="7" t="n">
-        <v>1.1600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="M74" s="7" t="n">
         <v>0.0</v>
@@ -5664,10 +5670,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
@@ -5676,74 +5682,76 @@
       </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>181</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>oxford</t>
         </is>
       </c>
       <c r="F75" s="1" t="inlineStr">
         <is>
-          <t>MY-LYRound020-BL-M</t>
+          <t>CS-SB171-LG907-XL</t>
         </is>
       </c>
       <c r="G75" s="1" t="inlineStr">
         <is>
-          <t>B0788FV16R</t>
+          <t>B0788MSMMV</t>
         </is>
       </c>
       <c r="H75" s="4" t="n">
-        <v>5010.0</v>
+        <v>923.0</v>
       </c>
       <c r="I75" s="4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="J75" s="6" t="n">
-        <v>0.0011976047904191617</v>
+        <v>0.004333694474539545</v>
       </c>
       <c r="K75" s="7" t="n">
-        <v>0.5266666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L75" s="7" t="n">
-        <v>3.16</v>
+        <v>2.08</v>
       </c>
       <c r="M75" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N75"/>
+        <v>68.94</v>
+      </c>
+      <c r="N75" s="6" t="n">
+        <v>0.03017116333043226</v>
+      </c>
       <c r="O75" s="5" t="n">
-        <v>0.0</v>
+        <v>33.14423076923077</v>
       </c>
       <c r="P75" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q75" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="R75" s="6" t="n">
-        <v>0.0</v>
+        <v>0.75</v>
       </c>
       <c r="S75" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T75" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U75" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V75" s="7" t="n">
-        <v>0.0</v>
+        <v>68.94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
@@ -5752,49 +5760,55 @@
       </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>171AUTO</t>
+          <t>MY019-SD</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>019</t>
         </is>
       </c>
       <c r="F76" s="1" t="inlineStr">
         <is>
-          <t>CS-LY171-LB916-XL</t>
+          <t>MY-SB019-BL-XL</t>
         </is>
       </c>
       <c r="G76" s="1" t="inlineStr">
         <is>
-          <t>B073PPTRYB</t>
+          <t>B077XGWRKM</t>
         </is>
       </c>
       <c r="H76" s="4" t="n">
-        <v>8174.0</v>
+        <v>233.0</v>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J76" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K76"/>
+        <v>0.004291845493562232</v>
+      </c>
+      <c r="K76" s="7" t="n">
+        <v>0.93</v>
+      </c>
       <c r="L76" s="7" t="n">
-        <v>0.0</v>
+        <v>0.93</v>
       </c>
       <c r="M76" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N76"/>
-      <c r="O76"/>
+      <c r="O76" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P76" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q76" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R76"/>
+      <c r="R76" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S76" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -5810,10 +5824,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
@@ -5822,76 +5836,76 @@
       </c>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>171AUTO</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>GRAY</t>
+          <t>170 button down/up/casual</t>
         </is>
       </c>
       <c r="F77" s="1" t="inlineStr">
         <is>
-          <t>CS-SB181-LG907-XL</t>
+          <t>CS-SB170-LB916-XL</t>
         </is>
       </c>
       <c r="G77" s="1" t="inlineStr">
         <is>
-          <t>B0789C7SK6</t>
+          <t>B0788J8BPY</t>
         </is>
       </c>
       <c r="H77" s="4" t="n">
-        <v>13616.0</v>
+        <v>5464.0</v>
       </c>
       <c r="I77" s="4" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="J77" s="6" t="n">
-        <v>9.5475910693302E-4</v>
+        <v>0.002745241581259151</v>
       </c>
       <c r="K77" s="7" t="n">
-        <v>0.7061538461538461</v>
+        <v>0.6873333333333334</v>
       </c>
       <c r="L77" s="7" t="n">
-        <v>9.18</v>
+        <v>10.31</v>
       </c>
       <c r="M77" s="7" t="n">
-        <v>111.9</v>
+        <v>22.98</v>
       </c>
       <c r="N77" s="6" t="n">
-        <v>0.08203753351206433</v>
+        <v>0.44865100087032206</v>
       </c>
       <c r="O77" s="5" t="n">
-        <v>12.189542483660132</v>
+        <v>2.228903976721629</v>
       </c>
       <c r="P77" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="R77" s="6" t="n">
-        <v>0.3846153846153847</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="S77" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T77" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="U77" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V77" s="7" t="n">
-        <v>111.9</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
@@ -5900,76 +5914,74 @@
       </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>171AUTO</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>NAVY</t>
+          <t>170 short sleeve</t>
         </is>
       </c>
       <c r="F78" s="1" t="inlineStr">
         <is>
-          <t>CS-SB181-ZL918-XL</t>
+          <t>CS-SB170-Sa911-XL</t>
         </is>
       </c>
       <c r="G78" s="1" t="inlineStr">
         <is>
-          <t>B0789KX4J2</t>
+          <t>B0788MX8HG</t>
         </is>
       </c>
       <c r="H78" s="4" t="n">
-        <v>34219.0</v>
+        <v>1565.0</v>
       </c>
       <c r="I78" s="4" t="n">
-        <v>90.0</v>
+        <v>10.0</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>0.002630117770829071</v>
+        <v>0.006389776357827476</v>
       </c>
       <c r="K78" s="7" t="n">
-        <v>0.6486666666666667</v>
+        <v>0.718</v>
       </c>
       <c r="L78" s="7" t="n">
-        <v>58.38</v>
+        <v>7.18</v>
       </c>
       <c r="M78" s="7" t="n">
-        <v>451.17</v>
-      </c>
-      <c r="N78" s="6" t="n">
-        <v>0.12939690138972007</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N78"/>
       <c r="O78" s="5" t="n">
-        <v>7.728160328879754</v>
+        <v>0.0</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="R78" s="6" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="S78" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T78" s="4" t="n">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c r="U78" s="7" t="n">
-        <v>71.94</v>
+        <v>0.0</v>
       </c>
       <c r="V78" s="7" t="n">
-        <v>379.22999999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
@@ -5978,76 +5990,68 @@
       </c>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>020EXACT</t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>170 short sleeve</t>
+          <t>020EXACT</t>
         </is>
       </c>
       <c r="F79" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-LB916-L</t>
+          <t>MY-SBRound020-NY-XL</t>
         </is>
       </c>
       <c r="G79" s="1" t="inlineStr">
         <is>
-          <t>B0788K28NT</t>
+          <t>B07C4RDLSK</t>
         </is>
       </c>
       <c r="H79" s="4" t="n">
-        <v>21282.0</v>
+        <v>272.0</v>
       </c>
       <c r="I79" s="4" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="J79" s="6" t="n">
-        <v>0.0030542242270463304</v>
-      </c>
-      <c r="K79" s="7" t="n">
-        <v>0.810153846153846</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K79"/>
       <c r="L79" s="7" t="n">
-        <v>52.65999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="M79" s="7" t="n">
-        <v>92.92</v>
-      </c>
-      <c r="N79" s="6" t="n">
-        <v>0.5667240637107188</v>
-      </c>
-      <c r="O79" s="5" t="n">
-        <v>1.7645271553361188</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
       <c r="P79" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="R79" s="6" t="n">
-        <v>0.06153846153846154</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R79"/>
       <c r="S79" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T79" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U79" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
       <c r="V79" s="7" t="n">
-        <v>69.94</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
@@ -6056,55 +6060,49 @@
       </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>171EXACT</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>020</t>
+          <t>EXACT</t>
         </is>
       </c>
       <c r="F80" s="1" t="inlineStr">
         <is>
-          <t>MY-LYRound020-GR-L</t>
+          <t>CS-SB171-W902-L</t>
         </is>
       </c>
       <c r="G80" s="1" t="inlineStr">
         <is>
-          <t>B073XK4LR3</t>
+          <t>B0788R2MXR</t>
         </is>
       </c>
       <c r="H80" s="4" t="n">
-        <v>10646.0</v>
+        <v>1420.0</v>
       </c>
       <c r="I80" s="4" t="n">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="J80" s="6" t="n">
-        <v>0.0030997557768175843</v>
-      </c>
-      <c r="K80" s="7" t="n">
-        <v>0.6006060606060605</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K80"/>
       <c r="L80" s="7" t="n">
-        <v>19.819999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="M80" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N80"/>
-      <c r="O80" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O80"/>
       <c r="P80" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R80" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R80"/>
       <c r="S80" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6120,10 +6118,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
@@ -6132,38 +6130,38 @@
       </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>171EXACT</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>170 oxford</t>
+          <t>EXACT</t>
         </is>
       </c>
       <c r="F81" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-Sa911-XXL</t>
+          <t>CS-SB171-ZL918-L</t>
         </is>
       </c>
       <c r="G81" s="1" t="inlineStr">
         <is>
-          <t>B0788K95NG</t>
+          <t>B0788N1XXM</t>
         </is>
       </c>
       <c r="H81" s="4" t="n">
-        <v>778.0</v>
+        <v>1469.0</v>
       </c>
       <c r="I81" s="4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="J81" s="6" t="n">
-        <v>0.006426735218508998</v>
+        <v>0.0013614703880190605</v>
       </c>
       <c r="K81" s="7" t="n">
-        <v>0.37</v>
+        <v>1.18</v>
       </c>
       <c r="L81" s="7" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="M81" s="7" t="n">
         <v>0.0</v>
@@ -6196,10 +6194,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
@@ -6208,38 +6206,38 @@
       </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>021EXACT</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>plaid shirt</t>
+          <t>021EXACT</t>
         </is>
       </c>
       <c r="F82" s="1" t="inlineStr">
         <is>
-          <t>CS-SB002-CF-L</t>
+          <t>MY-SBPoint021-GR-XL</t>
         </is>
       </c>
       <c r="G82" s="1" t="inlineStr">
         <is>
-          <t>B074DT4Z95</t>
+          <t>B07C4PDQWL</t>
         </is>
       </c>
       <c r="H82" s="4" t="n">
-        <v>223.0</v>
+        <v>268.0</v>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J82" s="6" t="n">
-        <v>0.004484304932735426</v>
+        <v>0.007462686567164178</v>
       </c>
       <c r="K82" s="7" t="n">
-        <v>0.69</v>
+        <v>0.615</v>
       </c>
       <c r="L82" s="7" t="n">
-        <v>0.69</v>
+        <v>1.23</v>
       </c>
       <c r="M82" s="7" t="n">
         <v>0.0</v>
@@ -6272,10 +6270,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43282.0</v>
+        <v>43287.0</v>
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
@@ -6284,74 +6282,76 @@
       </c>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>oxford</t>
+          <t>170 button down/up/casual</t>
         </is>
       </c>
       <c r="F83" s="1" t="inlineStr">
         <is>
-          <t>CS-SB171-LG907-XL</t>
+          <t>CS-SB170-LG907-XL</t>
         </is>
       </c>
       <c r="G83" s="1" t="inlineStr">
         <is>
-          <t>B0788MSMMV</t>
+          <t>B0788JG8QZ</t>
         </is>
       </c>
       <c r="H83" s="4" t="n">
-        <v>945.0</v>
+        <v>317.0</v>
       </c>
       <c r="I83" s="4" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="J83" s="6" t="n">
-        <v>0.006349206349206349</v>
+        <v>0.025236593059936908</v>
       </c>
       <c r="K83" s="7" t="n">
-        <v>0.7283333333333334</v>
+        <v>0.7724999999999999</v>
       </c>
       <c r="L83" s="7" t="n">
-        <v>4.37</v>
+        <v>6.179999999999999</v>
       </c>
       <c r="M83" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N83"/>
+        <v>49.96</v>
+      </c>
+      <c r="N83" s="6" t="n">
+        <v>0.12369895916733384</v>
+      </c>
       <c r="O83" s="5" t="n">
-        <v>0.0</v>
+        <v>8.084142394822008</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q83" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R83" s="6" t="n">
-        <v>0.0</v>
+        <v>0.25</v>
       </c>
       <c r="S83" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T83" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U83" s="7" t="n">
-        <v>0.0</v>
+        <v>24.98</v>
       </c>
       <c r="V83" s="7" t="n">
-        <v>0.0</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43277.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43282.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
@@ -6360,33 +6360,31 @@
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>170EXACT</t>
         </is>
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>170EXACT</t>
         </is>
       </c>
       <c r="F84" s="1" t="inlineStr">
         <is>
-          <t>MY-SB019-BL-XL</t>
+          <t>CS-SB170-LG907-L</t>
         </is>
       </c>
       <c r="G84" s="1" t="inlineStr">
         <is>
-          <t>B077XGWRKM</t>
+          <t>B0788KNR69</t>
         </is>
       </c>
       <c r="H84" s="4" t="n">
-        <v>142.0</v>
+        <v>0.0</v>
       </c>
       <c r="I84" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="J84" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J84"/>
       <c r="K84"/>
       <c r="L84" s="7" t="n">
         <v>0.0</v>
@@ -6418,10 +6416,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
@@ -6430,76 +6428,74 @@
       </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>170EXACT</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>170 button down/up/casual</t>
+          <t>170EXACT</t>
         </is>
       </c>
       <c r="F85" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-LB916-XL</t>
+          <t>CS-SB170-W902-L</t>
         </is>
       </c>
       <c r="G85" s="1" t="inlineStr">
         <is>
-          <t>B0788J8BPY</t>
+          <t>B0788MPWXH</t>
         </is>
       </c>
       <c r="H85" s="4" t="n">
-        <v>1284.0</v>
+        <v>87.0</v>
       </c>
       <c r="I85" s="4" t="n">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="J85" s="6" t="n">
-        <v>0.012461059190031152</v>
+        <v>0.011494252873563218</v>
       </c>
       <c r="K85" s="7" t="n">
-        <v>0.625</v>
+        <v>0.48</v>
       </c>
       <c r="L85" s="7" t="n">
-        <v>10.0</v>
+        <v>0.48</v>
       </c>
       <c r="M85" s="7" t="n">
-        <v>91.92</v>
-      </c>
-      <c r="N85" s="6" t="n">
-        <v>0.10879025239338555</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N85"/>
       <c r="O85" s="5" t="n">
-        <v>9.192</v>
+        <v>0.0</v>
       </c>
       <c r="P85" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="R85" s="6" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="S85" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T85" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U85" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V85" s="7" t="n">
-        <v>91.92</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
@@ -6508,76 +6504,76 @@
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>SB003</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>170 short sleeve</t>
+          <t>SB003 phrase</t>
         </is>
       </c>
       <c r="F86" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-Sa911-XL</t>
+          <t>CS-BS003-LB-L</t>
         </is>
       </c>
       <c r="G86" s="1" t="inlineStr">
         <is>
-          <t>B0788MX8HG</t>
+          <t>B078JFBBFF</t>
         </is>
       </c>
       <c r="H86" s="4" t="n">
-        <v>595.0</v>
+        <v>35577.0</v>
       </c>
       <c r="I86" s="4" t="n">
-        <v>12.0</v>
+        <v>216.0</v>
       </c>
       <c r="J86" s="6" t="n">
-        <v>0.020168067226890754</v>
+        <v>0.006071338224133569</v>
       </c>
       <c r="K86" s="7" t="n">
-        <v>0.895</v>
+        <v>0.48055555555555557</v>
       </c>
       <c r="L86" s="7" t="n">
-        <v>10.74</v>
+        <v>103.8</v>
       </c>
       <c r="M86" s="7" t="n">
-        <v>69.94</v>
+        <v>319.74</v>
       </c>
       <c r="N86" s="6" t="n">
-        <v>0.15356019445238778</v>
+        <v>0.3246387689998123</v>
       </c>
       <c r="O86" s="5" t="n">
-        <v>6.512104283054003</v>
+        <v>3.0803468208092486</v>
       </c>
       <c r="P86" s="4" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="R86" s="6" t="n">
-        <v>0.25</v>
+        <v>0.06018518518518518</v>
       </c>
       <c r="S86" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="T86" s="4" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="U86" s="7" t="n">
-        <v>0.0</v>
+        <v>99.92</v>
       </c>
       <c r="V86" s="7" t="n">
-        <v>69.94</v>
+        <v>219.81999999999996</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43279.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
@@ -6586,68 +6582,76 @@
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>020EXACT</t>
+          <t>SB171</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>020EXACT</t>
+          <t>oxford</t>
         </is>
       </c>
       <c r="F87" s="1" t="inlineStr">
         <is>
-          <t>MY-SBRound020-NY-XL</t>
+          <t>CS-LY085-LG907-S</t>
         </is>
       </c>
       <c r="G87" s="1" t="inlineStr">
         <is>
-          <t>B07C4RDLSK</t>
+          <t>B06XYZPBV7</t>
         </is>
       </c>
       <c r="H87" s="4" t="n">
-        <v>135.0</v>
+        <v>3362.0</v>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="J87" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K87"/>
+        <v>5.94883997620464E-4</v>
+      </c>
+      <c r="K87" s="7" t="n">
+        <v>0.72</v>
+      </c>
       <c r="L87" s="7" t="n">
-        <v>0.0</v>
+        <v>1.44</v>
       </c>
       <c r="M87" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N87"/>
-      <c r="O87"/>
+        <v>44.96</v>
+      </c>
+      <c r="N87" s="6" t="n">
+        <v>0.03202846975088968</v>
+      </c>
+      <c r="O87" s="5" t="n">
+        <v>31.222222222222225</v>
+      </c>
       <c r="P87" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R87"/>
+        <v>2.0</v>
+      </c>
+      <c r="R87" s="6" t="n">
+        <v>1.0</v>
+      </c>
       <c r="S87" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T87" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U87" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V87" s="7" t="n">
-        <v>0.0</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
@@ -6656,49 +6660,55 @@
       </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>171EXACT</t>
+          <t>1503+</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>EXACT</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="F88" s="1" t="inlineStr">
         <is>
-          <t>CS-SB171-W902-L</t>
+          <t>POLO-1503-BK-XL</t>
         </is>
       </c>
       <c r="G88" s="1" t="inlineStr">
         <is>
-          <t>B0788R2MXR</t>
+          <t>B0788M9Z9R</t>
         </is>
       </c>
       <c r="H88" s="4" t="n">
-        <v>602.0</v>
+        <v>20394.0</v>
       </c>
       <c r="I88" s="4" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="J88" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K88"/>
+        <v>0.0016671570069628323</v>
+      </c>
+      <c r="K88" s="7" t="n">
+        <v>0.34823529411764703</v>
+      </c>
       <c r="L88" s="7" t="n">
-        <v>0.0</v>
+        <v>11.84</v>
       </c>
       <c r="M88" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N88"/>
-      <c r="O88"/>
+      <c r="O88" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P88" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q88" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R88"/>
+      <c r="R88" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S88" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -6714,10 +6724,10 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43276.0</v>
+        <v>43288.0</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
@@ -6726,74 +6736,76 @@
       </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>171EXACT</t>
+          <t>KTK-AUTO</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>EXACT</t>
+          <t>KTK-AUTO</t>
         </is>
       </c>
       <c r="F89" s="1" t="inlineStr">
         <is>
-          <t>CS-SB171-ZL918-L</t>
+          <t>KZ-LHYX001-BLK-L</t>
         </is>
       </c>
       <c r="G89" s="1" t="inlineStr">
         <is>
-          <t>B0788N1XXM</t>
+          <t>B07DHF9D3T</t>
         </is>
       </c>
       <c r="H89" s="4" t="n">
-        <v>1144.0</v>
+        <v>3022.0</v>
       </c>
       <c r="I89" s="4" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="J89" s="6" t="n">
-        <v>0.005244755244755245</v>
+        <v>0.004963600264725348</v>
       </c>
       <c r="K89" s="7" t="n">
-        <v>0.7233333333333333</v>
+        <v>0.356</v>
       </c>
       <c r="L89" s="7" t="n">
-        <v>4.34</v>
+        <v>5.34</v>
       </c>
       <c r="M89" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N89"/>
+        <v>50.96</v>
+      </c>
+      <c r="N89" s="6" t="n">
+        <v>0.10478806907378335</v>
+      </c>
       <c r="O89" s="5" t="n">
-        <v>0.0</v>
+        <v>9.54307116104869</v>
       </c>
       <c r="P89" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q89" s="4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="R89" s="6" t="n">
-        <v>0.0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="S89" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T89" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U89" s="7" t="n">
-        <v>0.0</v>
+        <v>24.98</v>
       </c>
       <c r="V89" s="7" t="n">
-        <v>0.0</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43279.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
@@ -6802,68 +6814,76 @@
       </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>021EXACT</t>
+          <t>KTK-AUTO</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>021EXACT</t>
+          <t>KTK-AUTO</t>
         </is>
       </c>
       <c r="F90" s="1" t="inlineStr">
         <is>
-          <t>MY-SBPoint021-GR-XL</t>
+          <t>KZ-LHYX001-GRY-L</t>
         </is>
       </c>
       <c r="G90" s="1" t="inlineStr">
         <is>
-          <t>B07C4PDQWL</t>
+          <t>B07DHDJKYV</t>
         </is>
       </c>
       <c r="H90" s="4" t="n">
-        <v>82.0</v>
+        <v>7047.0</v>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="J90" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K90"/>
+        <v>0.005676174258549738</v>
+      </c>
+      <c r="K90" s="7" t="n">
+        <v>0.36075</v>
+      </c>
       <c r="L90" s="7" t="n">
-        <v>0.0</v>
+        <v>14.43</v>
       </c>
       <c r="M90" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>76.94</v>
+      </c>
+      <c r="N90" s="6" t="n">
+        <v>0.18754873927735902</v>
+      </c>
+      <c r="O90" s="5" t="n">
+        <v>5.331947331947332</v>
+      </c>
       <c r="P90" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R90"/>
+        <v>3.0</v>
+      </c>
+      <c r="R90" s="6" t="n">
+        <v>0.075</v>
+      </c>
       <c r="S90" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T90" s="4" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U90" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V90" s="7" t="n">
-        <v>0.0</v>
+        <v>76.94</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
@@ -6872,76 +6892,74 @@
       </c>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>KTK-SD</t>
         </is>
       </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>170 button down/up/casual</t>
+          <t>KTK-SD</t>
         </is>
       </c>
       <c r="F91" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-LG907-XL</t>
+          <t>KZ-LHYX001-GRY-L</t>
         </is>
       </c>
       <c r="G91" s="1" t="inlineStr">
         <is>
-          <t>B0788JG8QZ</t>
+          <t>B07DHDJKYV</t>
         </is>
       </c>
       <c r="H91" s="4" t="n">
-        <v>831.0</v>
+        <v>4938.0</v>
       </c>
       <c r="I91" s="4" t="n">
-        <v>8.0</v>
+        <v>37.0</v>
       </c>
       <c r="J91" s="6" t="n">
-        <v>0.009626955475330927</v>
+        <v>0.007492912110166059</v>
       </c>
       <c r="K91" s="7" t="n">
-        <v>0.8037500000000001</v>
+        <v>0.6381081081081081</v>
       </c>
       <c r="L91" s="7" t="n">
-        <v>6.430000000000001</v>
+        <v>23.61</v>
       </c>
       <c r="M91" s="7" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="N91" s="6" t="n">
-        <v>0.13990426457789384</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N91"/>
       <c r="O91" s="5" t="n">
-        <v>7.147744945567651</v>
+        <v>0.0</v>
       </c>
       <c r="P91" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q91" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R91" s="6" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="S91" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T91" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U91" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V91" s="7" t="n">
-        <v>45.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43279.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43280.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
@@ -6950,76 +6968,74 @@
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>170EXACT</t>
+          <t>YL</t>
         </is>
       </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>170EXACT</t>
+          <t>YL</t>
         </is>
       </c>
       <c r="F92" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-LG907-L</t>
+          <t>SB-YL003-GH80</t>
         </is>
       </c>
       <c r="G92" s="1" t="inlineStr">
         <is>
-          <t>B0788KNR69</t>
+          <t>B0776P5RMV</t>
         </is>
       </c>
       <c r="H92" s="4" t="n">
-        <v>262.0</v>
+        <v>2415.0</v>
       </c>
       <c r="I92" s="4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="J92" s="6" t="n">
-        <v>0.030534351145038167</v>
+        <v>0.004140786749482402</v>
       </c>
       <c r="K92" s="7" t="n">
-        <v>0.8425</v>
+        <v>0.33399999999999996</v>
       </c>
       <c r="L92" s="7" t="n">
-        <v>6.74</v>
+        <v>3.34</v>
       </c>
       <c r="M92" s="7" t="n">
-        <v>68.94</v>
-      </c>
-      <c r="N92" s="6" t="n">
-        <v>0.09776617348418917</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N92"/>
       <c r="O92" s="5" t="n">
-        <v>10.228486646884273</v>
+        <v>0.0</v>
       </c>
       <c r="P92" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="R92" s="6" t="n">
-        <v>0.375</v>
+        <v>0.0</v>
       </c>
       <c r="S92" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T92" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U92" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
       <c r="V92" s="7" t="n">
-        <v>45.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
@@ -7028,76 +7044,74 @@
       </c>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>170EXACT</t>
+          <t>YL</t>
         </is>
       </c>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t>170EXACT</t>
+          <t>YL</t>
         </is>
       </c>
       <c r="F93" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-W902-L</t>
+          <t>SB-YL004-FD50</t>
         </is>
       </c>
       <c r="G93" s="1" t="inlineStr">
         <is>
-          <t>B0788MPWXH</t>
+          <t>B0776NT9P7</t>
         </is>
       </c>
       <c r="H93" s="4" t="n">
-        <v>1238.0</v>
+        <v>2929.0</v>
       </c>
       <c r="I93" s="4" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="J93" s="6" t="n">
-        <v>0.012924071082390954</v>
+        <v>0.0030727210652099694</v>
       </c>
       <c r="K93" s="7" t="n">
-        <v>0.9299999999999998</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="L93" s="7" t="n">
-        <v>14.879999999999997</v>
+        <v>3.3</v>
       </c>
       <c r="M93" s="7" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="N93" s="6" t="n">
-        <v>0.32375979112271536</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N93"/>
       <c r="O93" s="5" t="n">
-        <v>3.0887096774193554</v>
+        <v>0.0</v>
       </c>
       <c r="P93" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R93" s="6" t="n">
-        <v>0.125</v>
+        <v>0.0</v>
       </c>
       <c r="S93" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T93" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U93" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
       <c r="V93" s="7" t="n">
-        <v>22.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43281.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43281.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
@@ -7106,47 +7120,55 @@
       </c>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t>021</t>
+          <t>032-SD</t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>021</t>
+          <t>032</t>
         </is>
       </c>
       <c r="F94" s="1" t="inlineStr">
         <is>
-          <t>MY-LYPoint021-NY-L</t>
+          <t>CS-LHY032-GN1-L</t>
         </is>
       </c>
       <c r="G94" s="1" t="inlineStr">
         <is>
-          <t>B0788F4HMX</t>
+          <t>B07C3PGX21</t>
         </is>
       </c>
       <c r="H94" s="4" t="n">
-        <v>0.0</v>
+        <v>936.0</v>
       </c>
       <c r="I94" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
+        <v>3.0</v>
+      </c>
+      <c r="J94" s="6" t="n">
+        <v>0.003205128205128205</v>
+      </c>
+      <c r="K94" s="7" t="n">
+        <v>0.4666666666666666</v>
+      </c>
       <c r="L94" s="7" t="n">
-        <v>0.0</v>
+        <v>1.4</v>
       </c>
       <c r="M94" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N94"/>
-      <c r="O94"/>
+      <c r="O94" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P94" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q94" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R94"/>
+      <c r="R94" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S94" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -7162,10 +7184,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
@@ -7174,76 +7196,76 @@
       </c>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>SB003</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>SB003 phrase</t>
+          <t>170 short sleeve</t>
         </is>
       </c>
       <c r="F95" s="1" t="inlineStr">
         <is>
-          <t>CS-BS003-LB-L</t>
+          <t>CS-SB030-NY-M</t>
         </is>
       </c>
       <c r="G95" s="1" t="inlineStr">
         <is>
-          <t>B078JFBBFF</t>
+          <t>B07DG2SX37</t>
         </is>
       </c>
       <c r="H95" s="4" t="n">
-        <v>18128.0</v>
+        <v>1338.0</v>
       </c>
       <c r="I95" s="4" t="n">
-        <v>117.0</v>
+        <v>18.0</v>
       </c>
       <c r="J95" s="6" t="n">
-        <v>0.006454104148278905</v>
+        <v>0.013452914798206279</v>
       </c>
       <c r="K95" s="7" t="n">
-        <v>0.4397435897435898</v>
+        <v>0.701111111111111</v>
       </c>
       <c r="L95" s="7" t="n">
-        <v>51.45</v>
+        <v>12.62</v>
       </c>
       <c r="M95" s="7" t="n">
-        <v>470.62</v>
+        <v>161.85999999999999</v>
       </c>
       <c r="N95" s="6" t="n">
-        <v>0.10932387063873189</v>
+        <v>0.07796861485234154</v>
       </c>
       <c r="O95" s="5" t="n">
-        <v>9.147133138969874</v>
+        <v>12.8256735340729</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q95" s="4" t="n">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="R95" s="6" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="S95" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T95" s="4" t="n">
-        <v>19.0</v>
+        <v>7.0</v>
       </c>
       <c r="U95" s="7" t="n">
-        <v>24.98</v>
+        <v>0.0</v>
       </c>
       <c r="V95" s="7" t="n">
-        <v>445.64</v>
+        <v>161.85999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
@@ -7252,38 +7274,38 @@
       </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>SB171</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>oxford</t>
+          <t>170 oxford</t>
         </is>
       </c>
       <c r="F96" s="1" t="inlineStr">
         <is>
-          <t>CS-LY085-LG907-S</t>
+          <t>CS-SB170-WR-XL</t>
         </is>
       </c>
       <c r="G96" s="1" t="inlineStr">
         <is>
-          <t>B06XYZPBV7</t>
+          <t>B073PPP5ZG</t>
         </is>
       </c>
       <c r="H96" s="4" t="n">
-        <v>3099.0</v>
+        <v>172.0</v>
       </c>
       <c r="I96" s="4" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="J96" s="6" t="n">
-        <v>0.0035495321071313322</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="K96" s="7" t="n">
-        <v>0.5472727272727272</v>
+        <v>0.35</v>
       </c>
       <c r="L96" s="7" t="n">
-        <v>6.02</v>
+        <v>0.35</v>
       </c>
       <c r="M96" s="7" t="n">
         <v>0.0</v>
@@ -7316,10 +7338,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43276.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
@@ -7328,76 +7350,76 @@
       </c>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>1503+</t>
+          <t>016</t>
         </is>
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>016</t>
         </is>
       </c>
       <c r="F97" s="1" t="inlineStr">
         <is>
-          <t>POLO-1503-BK-XL</t>
+          <t>CS-BS016-B0-L</t>
         </is>
       </c>
       <c r="G97" s="1" t="inlineStr">
         <is>
-          <t>B0788M9Z9R</t>
+          <t>B078JHYKHC</t>
         </is>
       </c>
       <c r="H97" s="4" t="n">
-        <v>3691.0</v>
+        <v>652.0</v>
       </c>
       <c r="I97" s="4" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="J97" s="6" t="n">
-        <v>0.004876727174207532</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="K97" s="7" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.585</v>
       </c>
       <c r="L97" s="7" t="n">
-        <v>5.75</v>
+        <v>2.34</v>
       </c>
       <c r="M97" s="7" t="n">
-        <v>22.98</v>
+        <v>51.96</v>
       </c>
       <c r="N97" s="6" t="n">
-        <v>0.25021758050478676</v>
+        <v>0.04503464203233256</v>
       </c>
       <c r="O97" s="5" t="n">
-        <v>3.996521739130435</v>
+        <v>22.205128205128208</v>
       </c>
       <c r="P97" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q97" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R97" s="6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.5</v>
       </c>
       <c r="S97" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T97" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U97" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V97" s="7" t="n">
-        <v>22.98</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43279.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
@@ -7406,76 +7428,76 @@
       </c>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>KTK-AUTO</t>
+          <t>WQS1503-AUTO</t>
         </is>
       </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>KTK-AUTO</t>
+          <t>WQS1503-AUTO</t>
         </is>
       </c>
       <c r="F98" s="1" t="inlineStr">
         <is>
-          <t>KZ-LHYX001-BLK-L</t>
+          <t>WQS-BN-1503-KO-2XL</t>
         </is>
       </c>
       <c r="G98" s="1" t="inlineStr">
         <is>
-          <t>B07DHF9D3T</t>
+          <t>B0788JMBWN</t>
         </is>
       </c>
       <c r="H98" s="4" t="n">
-        <v>11889.0</v>
+        <v>404.0</v>
       </c>
       <c r="I98" s="4" t="n">
-        <v>113.0</v>
+        <v>2.0</v>
       </c>
       <c r="J98" s="6" t="n">
-        <v>0.009504584069307764</v>
+        <v>0.0049504950495049506</v>
       </c>
       <c r="K98" s="7" t="n">
-        <v>0.36407079646017704</v>
+        <v>0.305</v>
       </c>
       <c r="L98" s="7" t="n">
-        <v>41.14000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="M98" s="7" t="n">
-        <v>229.82</v>
+        <v>22.98</v>
       </c>
       <c r="N98" s="6" t="n">
-        <v>0.17900965973370467</v>
+        <v>0.026544821583986074</v>
       </c>
       <c r="O98" s="5" t="n">
-        <v>5.586290714632959</v>
+        <v>37.67213114754099</v>
       </c>
       <c r="P98" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="R98" s="6" t="n">
-        <v>0.07964601769911504</v>
+        <v>0.5</v>
       </c>
       <c r="S98" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="T98" s="4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="U98" s="7" t="n">
-        <v>99.92</v>
+        <v>0.0</v>
       </c>
       <c r="V98" s="7" t="n">
-        <v>129.9</v>
+        <v>22.98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
@@ -7484,76 +7506,74 @@
       </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>KTK-AUTO</t>
+          <t>MY026-AUTO</t>
         </is>
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>KTK-AUTO</t>
+          <t>MY026-AUTO</t>
         </is>
       </c>
       <c r="F99" s="1" t="inlineStr">
         <is>
-          <t>KZ-LHYX001-GRY-L</t>
+          <t>MY-SB026-RD-L</t>
         </is>
       </c>
       <c r="G99" s="1" t="inlineStr">
         <is>
-          <t>B07DHDJKYV</t>
+          <t>B078SKTQ7J</t>
         </is>
       </c>
       <c r="H99" s="4" t="n">
-        <v>13515.0</v>
+        <v>11197.0</v>
       </c>
       <c r="I99" s="4" t="n">
-        <v>128.0</v>
+        <v>32.0</v>
       </c>
       <c r="J99" s="6" t="n">
-        <v>0.009470958194598594</v>
+        <v>0.0028579083683129406</v>
       </c>
       <c r="K99" s="7" t="n">
-        <v>0.34296875000000004</v>
+        <v>0.37156249999999996</v>
       </c>
       <c r="L99" s="7" t="n">
-        <v>43.900000000000006</v>
+        <v>11.889999999999999</v>
       </c>
       <c r="M99" s="7" t="n">
-        <v>150.88</v>
-      </c>
-      <c r="N99" s="6" t="n">
-        <v>0.2909597030752917</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N99"/>
       <c r="O99" s="5" t="n">
-        <v>3.4369020501138947</v>
+        <v>0.0</v>
       </c>
       <c r="P99" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q99" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="R99" s="6" t="n">
-        <v>0.046875</v>
+        <v>0.0</v>
       </c>
       <c r="S99" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="T99" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="U99" s="7" t="n">
-        <v>74.94</v>
+        <v>0.0</v>
       </c>
       <c r="V99" s="7" t="n">
-        <v>75.94</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
@@ -7562,49 +7582,55 @@
       </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t>KTK-SD</t>
+          <t>MY026-AUTO</t>
         </is>
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>KTK-SD</t>
+          <t>MY026-AUTO</t>
         </is>
       </c>
       <c r="F100" s="1" t="inlineStr">
         <is>
-          <t>KZ-LHYX001-GRY-L</t>
+          <t>MY-SB026-NY-L</t>
         </is>
       </c>
       <c r="G100" s="1" t="inlineStr">
         <is>
-          <t>B07DHDJKYV</t>
+          <t>B078SGRTXK</t>
         </is>
       </c>
       <c r="H100" s="4" t="n">
-        <v>26.0</v>
+        <v>2722.0</v>
       </c>
       <c r="I100" s="4" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="J100" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K100"/>
+        <v>0.001469507714915503</v>
+      </c>
+      <c r="K100" s="7" t="n">
+        <v>0.42000000000000004</v>
+      </c>
       <c r="L100" s="7" t="n">
-        <v>0.0</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="M100" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N100"/>
-      <c r="O100"/>
+      <c r="O100" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P100" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q100" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R100"/>
+      <c r="R100" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S100" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -7620,10 +7646,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
@@ -7632,47 +7658,47 @@
       </c>
       <c r="D101" s="1" t="inlineStr">
         <is>
-          <t>YL</t>
+          <t>MY026-AUTO</t>
         </is>
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>YL</t>
+          <t>MY026-AUTO</t>
         </is>
       </c>
       <c r="F101" s="1" t="inlineStr">
         <is>
-          <t>SB-YL003-GH80</t>
+          <t>MY-SB026-DG-L</t>
         </is>
       </c>
       <c r="G101" s="1" t="inlineStr">
         <is>
-          <t>B0776P5RMV</t>
+          <t>B078SLKRLZ</t>
         </is>
       </c>
       <c r="H101" s="4" t="n">
-        <v>4132.0</v>
+        <v>10832.0</v>
       </c>
       <c r="I101" s="4" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="J101" s="6" t="n">
-        <v>0.001936108422071636</v>
+        <v>0.0020310192023633676</v>
       </c>
       <c r="K101" s="7" t="n">
-        <v>0.30625</v>
+        <v>0.4190909090909091</v>
       </c>
       <c r="L101" s="7" t="n">
-        <v>2.45</v>
+        <v>9.22</v>
       </c>
       <c r="M101" s="7" t="n">
-        <v>25.0</v>
+        <v>26.98</v>
       </c>
       <c r="N101" s="6" t="n">
-        <v>0.098</v>
+        <v>0.3417346182357302</v>
       </c>
       <c r="O101" s="5" t="n">
-        <v>10.204081632653061</v>
+        <v>2.9262472885032538</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>1.0</v>
@@ -7681,7 +7707,7 @@
         <v>1.0</v>
       </c>
       <c r="R101" s="6" t="n">
-        <v>0.125</v>
+        <v>0.045454545454545456</v>
       </c>
       <c r="S101" s="4" t="n">
         <v>0.0</v>
@@ -7693,15 +7719,15 @@
         <v>0.0</v>
       </c>
       <c r="V101" s="7" t="n">
-        <v>25.0</v>
+        <v>26.98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
@@ -7710,38 +7736,38 @@
       </c>
       <c r="D102" s="1" t="inlineStr">
         <is>
-          <t>YL</t>
+          <t>MY026-SD</t>
         </is>
       </c>
       <c r="E102" s="1" t="inlineStr">
         <is>
-          <t>YL</t>
+          <t>026-SD</t>
         </is>
       </c>
       <c r="F102" s="1" t="inlineStr">
         <is>
-          <t>SB-YL004-FD50</t>
+          <t>MY-SB026-DG-L</t>
         </is>
       </c>
       <c r="G102" s="1" t="inlineStr">
         <is>
-          <t>B0776NT9P7</t>
+          <t>B078SLKRLZ</t>
         </is>
       </c>
       <c r="H102" s="4" t="n">
-        <v>3240.0</v>
+        <v>785.0</v>
       </c>
       <c r="I102" s="4" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="J102" s="6" t="n">
-        <v>0.0030864197530864196</v>
+        <v>0.0038216560509554145</v>
       </c>
       <c r="K102" s="7" t="n">
-        <v>0.49400000000000005</v>
+        <v>0.41</v>
       </c>
       <c r="L102" s="7" t="n">
-        <v>4.94</v>
+        <v>1.23</v>
       </c>
       <c r="M102" s="7" t="n">
         <v>0.0</v>
@@ -7774,10 +7800,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43276.0</v>
+        <v>43284.0</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
@@ -7786,76 +7812,74 @@
       </c>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t>032+</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t>032</t>
+          <t>170 button down/up/casual</t>
         </is>
       </c>
       <c r="F103" s="1" t="inlineStr">
         <is>
-          <t>CS-LHY032-GN1-L</t>
+          <t>CS-LHY030-BK-XXL</t>
         </is>
       </c>
       <c r="G103" s="1" t="inlineStr">
         <is>
-          <t>B07C3PGX21</t>
+          <t>B07DXQ4V2V</t>
         </is>
       </c>
       <c r="H103" s="4" t="n">
-        <v>7649.0</v>
+        <v>236.0</v>
       </c>
       <c r="I103" s="4" t="n">
-        <v>33.0</v>
+        <v>2.0</v>
       </c>
       <c r="J103" s="6" t="n">
-        <v>0.004314289449601255</v>
+        <v>0.00847457627118644</v>
       </c>
       <c r="K103" s="7" t="n">
-        <v>0.49242424242424243</v>
+        <v>0.79</v>
       </c>
       <c r="L103" s="7" t="n">
-        <v>16.25</v>
+        <v>1.58</v>
       </c>
       <c r="M103" s="7" t="n">
-        <v>45.96</v>
-      </c>
-      <c r="N103" s="6" t="n">
-        <v>0.35356832027850305</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N103"/>
       <c r="O103" s="5" t="n">
-        <v>2.828307692307692</v>
+        <v>0.0</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q103" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R103" s="6" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0</v>
       </c>
       <c r="S103" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T103" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="U103" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V103" s="7" t="n">
-        <v>45.96</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43276.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>43278.0</v>
+        <v>43286.0</v>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
@@ -7864,76 +7888,74 @@
       </c>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>170EXACT</t>
+          <t>MY011-SD</t>
         </is>
       </c>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t>170EXACT</t>
+          <t>011</t>
         </is>
       </c>
       <c r="F104" s="1" t="inlineStr">
         <is>
-          <t>CS-SB030-NY-L</t>
+          <t>MY-SB011-NY-L</t>
         </is>
       </c>
       <c r="G104" s="1" t="inlineStr">
         <is>
-          <t>B07DG2ZYCD</t>
+          <t>B0758YTFV7</t>
         </is>
       </c>
       <c r="H104" s="4" t="n">
-        <v>808.0</v>
+        <v>1256.0</v>
       </c>
       <c r="I104" s="4" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="J104" s="6" t="n">
-        <v>0.013613861386138616</v>
+        <v>0.003980891719745223</v>
       </c>
       <c r="K104" s="7" t="n">
-        <v>0.9699999999999999</v>
+        <v>0.718</v>
       </c>
       <c r="L104" s="7" t="n">
-        <v>10.669999999999998</v>
+        <v>3.59</v>
       </c>
       <c r="M104" s="7" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="N104" s="6" t="n">
-        <v>0.4449541284403669</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N104"/>
       <c r="O104" s="5" t="n">
-        <v>2.2474226804123716</v>
+        <v>0.0</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q104" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R104" s="6" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.0</v>
       </c>
       <c r="S104" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T104" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U104" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V104" s="7" t="n">
-        <v>23.98</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43277.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
@@ -7942,74 +7964,76 @@
       </c>
       <c r="D105" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>CS-SB005-AUTO</t>
         </is>
       </c>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>170 short sleeve</t>
+          <t>005-AUTO</t>
         </is>
       </c>
       <c r="F105" s="1" t="inlineStr">
         <is>
-          <t>CS-SB030-NY-M</t>
+          <t>CS-SB005-BL2-L</t>
         </is>
       </c>
       <c r="G105" s="1" t="inlineStr">
         <is>
-          <t>B07DG2SX37</t>
+          <t>B074P2STD5</t>
         </is>
       </c>
       <c r="H105" s="4" t="n">
-        <v>606.0</v>
+        <v>2222.0</v>
       </c>
       <c r="I105" s="4" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="J105" s="6" t="n">
-        <v>0.02145214521452145</v>
+        <v>9.000900090009E-4</v>
       </c>
       <c r="K105" s="7" t="n">
-        <v>0.7438461538461538</v>
+        <v>0.42</v>
       </c>
       <c r="L105" s="7" t="n">
-        <v>9.67</v>
+        <v>0.84</v>
       </c>
       <c r="M105" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N105"/>
+        <v>21.98</v>
+      </c>
+      <c r="N105" s="6" t="n">
+        <v>0.03821656050955414</v>
+      </c>
       <c r="O105" s="5" t="n">
-        <v>0.0</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q105" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R105" s="6" t="n">
-        <v>0.0</v>
+        <v>0.5</v>
       </c>
       <c r="S105" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T105" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U105" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V105" s="7" t="n">
-        <v>0.0</v>
+        <v>21.98</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43277.0</v>
+        <v>43285.0</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
@@ -8018,55 +8042,49 @@
       </c>
       <c r="D106" s="1" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>CS-SB005-AUTO</t>
         </is>
       </c>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>170 oxford</t>
+          <t>005-AUTO</t>
         </is>
       </c>
       <c r="F106" s="1" t="inlineStr">
         <is>
-          <t>CS-SB170-WR-XL</t>
+          <t>CS-SB005-BK-XL</t>
         </is>
       </c>
       <c r="G106" s="1" t="inlineStr">
         <is>
-          <t>B073PPP5ZG</t>
+          <t>B074NZKQBC</t>
         </is>
       </c>
       <c r="H106" s="4" t="n">
-        <v>176.0</v>
+        <v>300.0</v>
       </c>
       <c r="I106" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J106" s="6" t="n">
-        <v>0.005681818181818182</v>
-      </c>
-      <c r="K106" s="7" t="n">
-        <v>1.05</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K106"/>
       <c r="L106" s="7" t="n">
-        <v>1.05</v>
+        <v>0.0</v>
       </c>
       <c r="M106" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N106"/>
-      <c r="O106" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O106"/>
       <c r="P106" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q106" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R106" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R106"/>
       <c r="S106" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -8082,10 +8100,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43279.0</v>
+        <v>43288.0</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
@@ -8094,38 +8112,38 @@
       </c>
       <c r="D107" s="1" t="inlineStr">
         <is>
-          <t>016</t>
+          <t>170EXACT</t>
         </is>
       </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>016</t>
+          <t>170EXACT</t>
         </is>
       </c>
       <c r="F107" s="1" t="inlineStr">
         <is>
-          <t>CS-BS016-B0-L</t>
+          <t>CS-LHY170-ZL918-XXL</t>
         </is>
       </c>
       <c r="G107" s="1" t="inlineStr">
         <is>
-          <t>B078JHYKHC</t>
+          <t>B07DZS3N52</t>
         </is>
       </c>
       <c r="H107" s="4" t="n">
-        <v>318.0</v>
+        <v>304.0</v>
       </c>
       <c r="I107" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J107" s="6" t="n">
-        <v>0.003144654088050315</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="K107" s="7" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="L107" s="7" t="n">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="M107" s="7" t="n">
         <v>0.0</v>
@@ -8158,10 +8176,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43282.0</v>
+        <v>43288.0</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>43282.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
@@ -8170,26 +8188,26 @@
       </c>
       <c r="D108" s="1" t="inlineStr">
         <is>
-          <t>009-AUTO</t>
+          <t>170-SD</t>
         </is>
       </c>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>009-AUTO</t>
+          <t>170 button down/up/casual</t>
         </is>
       </c>
       <c r="F108" s="1" t="inlineStr">
         <is>
-          <t>CS-LHY009-BK-L</t>
+          <t>CS-LHY170-ZL918-XL</t>
         </is>
       </c>
       <c r="G108" s="1" t="inlineStr">
         <is>
-          <t>B07DNQMXPN</t>
+          <t>B0788MSV7Q</t>
         </is>
       </c>
       <c r="H108" s="4" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="I108" s="4" t="n">
         <v>0.0</v>
@@ -8223,6 +8241,152 @@
         <v>0.0</v>
       </c>
       <c r="V108" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>43288.0</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>170-SD</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>170 oxford</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr">
+        <is>
+          <t>CS-LHY170-ZL918-XXL</t>
+        </is>
+      </c>
+      <c r="G109" s="1" t="inlineStr">
+        <is>
+          <t>B07DZS3N52</t>
+        </is>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R109"/>
+      <c r="S109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T109" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V109" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>43288.0</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>170-AUTO</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>170-AUTO</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr">
+        <is>
+          <t>CS-LHY030-BK-XXL</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="inlineStr">
+        <is>
+          <t>B07DXQ4V2V</t>
+        </is>
+      </c>
+      <c r="H110" s="4" t="n">
+        <v>4854.0</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J110" s="6" t="n">
+        <v>0.003090234857849197</v>
+      </c>
+      <c r="K110" s="7" t="n">
+        <v>0.4453333333333333</v>
+      </c>
+      <c r="L110" s="7" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="M110" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N110"/>
+      <c r="O110" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R110" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T110" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U110" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V110" s="7" t="n">
         <v>0.0</v>
       </c>
     </row>
